--- a/source/LocVol Parameters.xlsx
+++ b/source/LocVol Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mymurex-my.sharepoint.com/personal/ycui_murex_com/Documents/Desktop/Local Vol Calibration/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747663E7-DE4B-494D-AE00-F3244F1EDAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1455" windowWidth="14250" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-990" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRSMFORM" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -703,13 +703,13 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24629,7 +24629,7 @@
   <dimension ref="B1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24640,7 +24640,7 @@
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <v>1.0822999976901</v>
       </c>
     </row>
@@ -24721,815 +24721,815 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
+      <c r="B6" s="41">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>4.1155828699999996E-3</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="41">
         <v>-4.5584587960999998E-3</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="41">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="41">
         <v>-3.4420062715500001E-2</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="41">
         <v>2.7397260273999999E-3</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="41">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="41">
         <v>1.0928611436024001</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="41">
         <v>1.0877712353913001</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="41">
         <v>1.0824548120705999</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="41">
         <v>1.0773555473554</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="41">
         <v>1.0727260244829</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="41">
         <v>0.1425855308592</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="41">
         <v>0.1387265831765</v>
       </c>
-      <c r="V6" s="43">
+      <c r="V6" s="41">
         <v>0.13500000000000001</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="41">
         <v>0.13372658317649999</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="41">
         <v>0.1345855308592</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>5.4794520547999997E-3</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>5.2824232969999997E-3</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <v>5.4794520547999997E-3</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="41">
         <v>-9.7565457365999999E-3</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="41">
         <v>5.4794520547999997E-3</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="41">
         <v>-1.1036046175E-2</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="41">
         <v>1.9178082191799999E-2</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="41">
         <v>0.114</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="41">
         <v>1.1060402313711</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="41">
         <v>1.0945434918243999</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="41">
         <v>1.0826422175114001</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="41">
         <v>1.0712263148159</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="41">
         <v>1.0608100596131</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="41">
         <v>0.1203924027461</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="41">
         <v>0.1169658277874</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="41">
         <v>0.114</v>
       </c>
-      <c r="W7" s="43">
+      <c r="W7" s="41">
         <v>0.1134658277874</v>
       </c>
-      <c r="X7" s="43">
+      <c r="X7" s="41">
         <v>0.1147924027461</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>1.3698630137E-2</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>5.9825275532000002E-3</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <v>1.3698630137E-2</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="41">
         <v>-8.6518809365999996E-3</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="41">
         <v>1.3698630137E-2</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="41">
         <v>2.8758179006000001E-3</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="41">
         <v>3.8356164383599997E-2</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="41">
         <v>0.1055</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <v>1.1138330420706</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="41">
         <v>1.0985408873741001</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="41">
         <v>1.0829283667131999</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="41">
         <v>1.0679035858624</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="41">
         <v>1.0539781449123</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="41">
         <v>0.1119965744464</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="41">
         <v>0.1082591241115</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="41">
         <v>0.1055</v>
       </c>
-      <c r="W8" s="43">
+      <c r="W8" s="41">
         <v>0.1057591241115</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="41">
         <v>0.1079965744464</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>1.9178082191799999E-2</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>6.1158807448000001E-3</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>1.9178082191799999E-2</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="41">
         <v>-6.5799608283999998E-3</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="41">
         <v>1.9178082191799999E-2</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="41">
         <v>2.7090418631E-3</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="41">
         <v>7.9452054794500002E-2</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="41">
         <v>0.10349999999999999</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="41">
         <v>1.127924371722</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="41">
         <v>1.1057243779239001</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="41">
         <v>1.0836344624465</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="41">
         <v>1.0622231744132999</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="41">
         <v>1.0418062745665999</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="41">
         <v>0.1107107890606</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="41">
         <v>0.1060020825058</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="41">
         <v>0.10349999999999999</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="41">
         <v>0.1050020825058</v>
       </c>
-      <c r="X9" s="43">
+      <c r="X9" s="41">
         <v>0.1090907890606</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="43">
+      <c r="B10" s="41">
         <v>2.4657534246599999E-2</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>6.1899658512999996E-3</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>2.4657534246599999E-2</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="41">
         <v>-4.919538153E-3</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="41">
         <v>2.4657534246599999E-2</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="41">
         <v>-3.6304132390000001E-4</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="41">
         <v>0.158904109589</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="41">
         <v>0.11250499999999999</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="41">
         <v>1.1538059215845</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="41">
         <v>1.1192192492705</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="41">
         <v>1.0852981845758001</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="41">
         <v>1.0520756891312</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="41">
         <v>1.0198978458435</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="41">
         <v>0.11952873647789999</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="41">
         <v>0.114255558912</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="41">
         <v>0.11250499999999999</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="41">
         <v>0.115755558912</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="41">
         <v>0.12196873647790001</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>3.8356164383599997E-2</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>6.2825722343999996E-3</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <v>3.8356164383599997E-2</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="41">
         <v>-3.9785812372000002E-3</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="41">
         <v>3.8356164383599997E-2</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="41">
         <v>6.9394524460000004E-4</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="41">
         <v>0.24657534246580001</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="41">
         <v>0.11125500000000001</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <v>1.1714163164200999</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="41">
         <v>1.1286745281187001</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="41">
         <v>1.0869020003701</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="41">
         <v>1.0457747662464001</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="41">
         <v>1.0058038539642</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="41">
         <v>0.1173419741591</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="41">
         <v>0.11236048733120001</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="41">
         <v>0.11125500000000001</v>
       </c>
-      <c r="W11" s="43">
+      <c r="W11" s="41">
         <v>0.1153604873312</v>
       </c>
-      <c r="X11" s="43">
+      <c r="X11" s="41">
         <v>0.12229197415909999</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>4.3835616438399998E-2</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>6.3034086705999999E-3</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>4.3835616438399998E-2</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="41">
         <v>-3.9477696572000004E-3</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="41">
         <v>4.3835616438399998E-2</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="41">
         <v>-4.1125478679999999E-4</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="41">
         <v>0.49863013698629999</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="41">
         <v>0.108505</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="41">
         <v>1.2097180230955</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="41">
         <v>1.1500061624697999</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="41">
         <v>1.0919900365121</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="41">
         <v>1.0343691196021001</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="41">
         <v>0.97804090244789998</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="41">
         <v>0.11274331937199999</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="41">
         <v>0.1083566959254</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="41">
         <v>0.108505</v>
       </c>
-      <c r="W12" s="43">
+      <c r="W12" s="41">
         <v>0.1141066959254</v>
       </c>
-      <c r="X12" s="43">
+      <c r="X12" s="41">
         <v>0.12252331937200001</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="43">
+      <c r="B13" s="41">
         <v>6.3013698630100007E-2</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>6.3477993390000003E-3</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>6.3013698630100007E-2</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="41">
         <v>-3.6443324806E-3</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="41">
         <v>6.3013698630100007E-2</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="41">
         <v>-7.661678842E-4</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="41">
         <v>0.75068493150680005</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="41">
         <v>0.10860499999999999</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="41">
         <v>1.2441955366813</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="41">
         <v>1.1694135421633001</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="41">
         <v>1.0975273849255001</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="41">
         <v>1.0264727609905</v>
       </c>
-      <c r="R13" s="43">
+      <c r="R13" s="41">
         <v>0.95744594483519996</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="41">
         <v>0.112448036487</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="41">
         <v>0.1080641976553</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="41">
         <v>0.10860499999999999</v>
       </c>
-      <c r="W13" s="43">
+      <c r="W13" s="41">
         <v>0.1148141976553</v>
       </c>
-      <c r="X13" s="43">
+      <c r="X13" s="41">
         <v>0.123928036487</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="43">
+      <c r="B14" s="41">
         <v>7.9452054794500002E-2</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>6.3687919704000003E-3</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="41">
         <v>7.9452054794500002E-2</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="41">
         <v>-3.9756211484000001E-3</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="41">
         <v>7.9452054794500002E-2</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="41">
         <v>1.9143389140000001E-4</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="41">
         <v>1</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="41">
         <v>0.1085</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="41">
         <v>1.2755193361949999</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="41">
         <v>1.1872917704288</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="41">
         <v>1.1034778960942999</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="41">
         <v>1.0212114692365999</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="41">
         <v>0.94181387711169995</v>
       </c>
-      <c r="T14" s="43">
+      <c r="T14" s="41">
         <v>0.11238719204600001</v>
       </c>
-      <c r="U14" s="43">
+      <c r="U14" s="41">
         <v>0.10781054407689999</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="41">
         <v>0.1085</v>
       </c>
-      <c r="W14" s="43">
+      <c r="W14" s="41">
         <v>0.1150605440769</v>
       </c>
-      <c r="X14" s="43">
+      <c r="X14" s="41">
         <v>0.124717192046</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="43">
+      <c r="B15" s="41">
         <v>9.0410958904100003E-2</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>6.3785461222999997E-3</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <v>9.0410958904100003E-2</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="41">
         <v>-3.4552216250000002E-3</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="41">
         <v>9.0410958904100003E-2</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="41">
         <v>8.8081881799999999E-4</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="41">
         <v>1.9972602739726</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="41">
         <v>0.108</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="41">
         <v>1.3753185664284</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="41">
         <v>1.2424486597266999</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="41">
         <v>1.1215384780538999</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="41">
         <v>1.0073796800739001</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="41">
         <v>0.90042792496390001</v>
       </c>
-      <c r="T15" s="43">
+      <c r="T15" s="41">
         <v>0.1121262326205</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="41">
         <v>0.1075165547746</v>
       </c>
-      <c r="V15" s="43">
+      <c r="V15" s="41">
         <v>0.108</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="41">
         <v>0.1140165547746</v>
       </c>
-      <c r="X15" s="43">
+      <c r="X15" s="41">
         <v>0.1231762326205</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>9.5890410958899996E-2</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>6.3825871280999997E-3</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <v>9.5890410958899996E-2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>-2.9181343786000001E-3</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="41">
         <v>9.5890410958899996E-2</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="41">
         <v>5.2882358600000003E-4</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="41">
         <v>2.9972602739726</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="41">
         <v>0.11</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="41">
         <v>1.4851170685057</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="41">
         <v>1.3033626022547999</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="41">
         <v>1.1450649183521</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="41">
         <v>1.0031181012804999</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="41">
         <v>0.87547900670870005</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="41">
         <v>0.1162458703394</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="41">
         <v>0.1106922774384</v>
       </c>
-      <c r="V16" s="43">
+      <c r="V16" s="41">
         <v>0.11</v>
       </c>
-      <c r="W16" s="43">
+      <c r="W16" s="41">
         <v>0.11469227743840001</v>
       </c>
-      <c r="X16" s="43">
+      <c r="X16" s="41">
         <v>0.1230458703394</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="43">
+      <c r="B17" s="41">
         <v>0.1369863013699</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>6.4025901068999998E-3</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="41">
         <v>0.1369863013699</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="41">
         <v>-4.6891825237000001E-3</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="41">
         <v>0.1369863013699</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="41">
         <v>-2.387301238E-4</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="41">
         <v>5.0054794520548</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="41">
         <v>0.113</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="41">
         <v>1.6968820364574999</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="41">
         <v>1.4215725085412001</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="41">
         <v>1.1950129417736</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="41">
         <v>1.0039245368603</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="41">
         <v>0.84111859973860004</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="41">
         <v>0.1207172875696</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="41">
         <v>0.1144848812645</v>
       </c>
-      <c r="V17" s="43">
+      <c r="V17" s="41">
         <v>0.113</v>
       </c>
-      <c r="W17" s="43">
+      <c r="W17" s="41">
         <v>0.1169848812645</v>
       </c>
-      <c r="X17" s="43">
+      <c r="X17" s="41">
         <v>0.1249672875696</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="43">
+      <c r="B18" s="41">
         <v>0.1397260273973</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>6.4035052759000002E-3</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="41">
         <v>0.1397260273973</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="41">
         <v>-4.6774571225E-3</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="41">
         <v>0.1397260273973</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="41">
         <v>-2.2195525230000001E-4</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="41">
         <v>7.0027397260274</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="41">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="41">
         <v>1.9150657702731</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="41">
         <v>1.5397760422144999</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="41">
         <v>1.2453515907585</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="41">
         <v>1.0090643204533001</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="41">
         <v>0.81659865197680004</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="41">
         <v>0.1247241553668</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="41">
         <v>0.1179863847286</v>
       </c>
-      <c r="V18" s="43">
+      <c r="V18" s="41">
         <v>0.11600000000000001</v>
       </c>
-      <c r="W18" s="43">
+      <c r="W18" s="41">
         <v>0.1194863847286</v>
       </c>
-      <c r="X18" s="43">
+      <c r="X18" s="41">
         <v>0.12727415536680001</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="43">
+      <c r="B19" s="41">
         <v>0.158904109589</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>6.4090278471999997E-3</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="41">
         <v>0.158904109589</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="41">
         <v>-4.5432963116999996E-3</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="41">
         <v>0.158904109589</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="41">
         <v>-1.2803804629999999E-4</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="41">
         <v>10.0082191780822</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="41">
         <v>0.1275</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="41">
         <v>2.3036276843243999</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="41">
         <v>1.7497661519151</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="41">
         <v>1.3320278121696001</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="41">
         <v>1.0103622687225999</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="41">
         <v>0.76428424729959998</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="41">
         <v>0.13325857752119999</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="41">
         <v>0.127711137502</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="41">
         <v>0.1275</v>
       </c>
-      <c r="W19" s="43">
+      <c r="W19" s="41">
         <v>0.132711137502</v>
       </c>
-      <c r="X19" s="43">
+      <c r="X19" s="41">
         <v>0.1417585775212</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="43">
+      <c r="B20" s="41">
         <v>0.16986301369859999</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>6.4116237102000003E-3</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <v>0.16986301369859999</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="41">
         <v>-4.4390044505E-3</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="41">
         <v>0.16986301369859999</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="41">
         <v>1.7571377759999999E-4</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -25537,31 +25537,31 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="43">
+      <c r="B21" s="41">
         <v>0.21643835616439999</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>6.4197234600000003E-3</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="41">
         <v>0.21643835616439999</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="41">
         <v>-4.3975027565999998E-3</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="41">
         <v>0.21643835616439999</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="41">
         <v>-2.410794918E-4</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -25569,31 +25569,31 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="43">
+      <c r="B22" s="41">
         <v>0.24657534246580001</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="41">
         <v>6.4213195190000001E-3</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="41">
         <v>0.24657534246580001</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="41">
         <v>-4.6300166569000004E-3</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="41">
         <v>0.24657534246580001</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="41">
         <v>3.2273683800000002E-5</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -25601,31 +25601,31 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>0.2520547945205</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="41">
         <v>6.4215687061000004E-3</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="41">
         <v>0.2520547945205</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="41">
         <v>-4.6848830586999997E-3</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="41">
         <v>0.2520547945205</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="41">
         <v>-2.7845678809999998E-4</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -25633,31 +25633,31 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="43">
+      <c r="B24" s="41">
         <v>0.33972602739730001</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="41">
         <v>6.4244624915000001E-3</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="41">
         <v>0.33972602739730001</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="41">
         <v>-4.8383338076000001E-3</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="41">
         <v>0.33972602739730001</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="41">
         <v>1.6127856239999999E-4</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -25665,31 +25665,31 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="43">
+      <c r="B25" s="41">
         <v>0.34520547945210001</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="41">
         <v>6.4245945491000003E-3</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="41">
         <v>0.34520547945210001</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="41">
         <v>-4.7394224145000004E-3</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="41">
         <v>0.34520547945210001</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="41">
         <v>1.650391319E-4</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -25697,31 +25697,31 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="43">
+      <c r="B26" s="41">
         <v>0.35068493150680002</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="41">
         <v>6.4247224799999997E-3</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="41">
         <v>0.35068493150680002</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="41">
         <v>-4.6373802141999997E-3</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="41">
         <v>0.35068493150680002</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="41">
         <v>3.6396103399999997E-5</v>
       </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -25729,31 +25729,31 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="43">
+      <c r="B27" s="41">
         <v>0.38630136986300001</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="41">
         <v>6.4341935690000003E-3</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="41">
         <v>0.38630136986300001</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="41">
         <v>-5.0062809223000004E-3</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="41">
         <v>0.38630136986300001</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="41">
         <v>-6.6875080980000003E-4</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -25761,1042 +25761,1042 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="43">
+      <c r="B28" s="41">
         <v>0.38904109589039998</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="41">
         <v>6.4348502858999996E-3</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="41">
         <v>0.38904109589039998</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="41">
         <v>-5.1421264015000002E-3</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="41">
         <v>0.38904109589039998</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="41">
         <v>-4.4697237919999998E-4</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="43">
+      <c r="B29" s="41">
         <v>0.41917808219180003</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="41">
         <v>6.4415075923999997E-3</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="41">
         <v>0.41917808219180003</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="41">
         <v>-5.3400809077999998E-3</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="41">
         <v>0.41917808219180003</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="41">
         <v>8.4563110899999995E-5</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="43">
+      <c r="B30" s="41">
         <v>0.46575342465750003</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="41">
         <v>6.4501015700000001E-3</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="41">
         <v>0.46575342465750003</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="41">
         <v>-5.4351926277999996E-3</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="41">
         <v>0.46575342465750003</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="41">
         <v>-1.8521255959999999E-4</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="43">
+      <c r="B31" s="41">
         <v>0.49863013698629999</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="41">
         <v>6.4669730066000001E-3</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="41">
         <v>0.49863013698629999</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="41">
         <v>-5.5688374037999996E-3</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="41">
         <v>0.49863013698629999</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="41">
         <v>4.6805431299999997E-5</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="43">
+      <c r="B32" s="41">
         <v>0.50410958904110004</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="41">
         <v>6.4695709632999997E-3</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="41">
         <v>0.50410958904110004</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="41">
         <v>-5.5525857990000003E-3</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="41">
         <v>0.50410958904110004</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="41">
         <v>-2.4588188700000001E-5</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="43">
+      <c r="B33" s="41">
         <v>0.61369863013699999</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="41">
         <v>6.5117877601000001E-3</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="41">
         <v>0.61369863013699999</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="41">
         <v>-4.9884041669E-3</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="41">
         <v>0.61369863013699999</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="41">
         <v>-7.6659210400000007E-5</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="43">
+      <c r="B34" s="41">
         <v>0.61917808219180004</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="41">
         <v>6.5135063200000001E-3</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="41">
         <v>0.61917808219180004</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="41">
         <v>-5.0939830290000002E-3</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="41">
         <v>0.61917808219180004</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="41">
         <v>-2.806874436E-4</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="43">
+      <c r="B35" s="41">
         <v>0.63835616438359999</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="41">
         <v>6.5257344392000002E-3</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="41">
         <v>0.63835616438359999</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="41">
         <v>-5.3506075015999997E-3</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="41">
         <v>0.63835616438359999</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="41">
         <v>-6.0652694000000001E-6</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="43">
+      <c r="B36" s="41">
         <v>0.64657534246579995</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="41">
         <v>6.5307530014000002E-3</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="41">
         <v>0.64657534246579995</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="41">
         <v>-5.292338154E-3</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="41">
         <v>0.64657534246579995</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="41">
         <v>5.1589089099999999E-5</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="43">
+      <c r="B37" s="41">
         <v>0.73424657534250004</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="41">
         <v>6.5772933000000002E-3</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="41">
         <v>0.73424657534250004</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="41">
         <v>-5.9176800741000003E-3</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="41">
         <v>0.73424657534250004</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="41">
         <v>-1.6174401870000001E-4</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="43">
+      <c r="B38" s="41">
         <v>0.75068493150680005</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="41">
         <v>6.5892403784000003E-3</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="41">
         <v>0.75068493150680005</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="41">
         <v>-6.0219444737999997E-3</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="41">
         <v>0.75068493150680005</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="41">
         <v>-1.028467048E-4</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="43">
+      <c r="B39" s="41">
         <v>0.76164383561640003</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="41">
         <v>6.5969185965999997E-3</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="41">
         <v>0.76164383561640003</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="41">
         <v>-6.0423712763999996E-3</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="41">
         <v>0.76164383561640003</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="41">
         <v>2.0836517799999999E-5</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="43">
+      <c r="B40" s="41">
         <v>0.84931506849320004</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="41">
         <v>6.6512110299999996E-3</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="41">
         <v>0.84931506849320004</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="41">
         <v>-5.8833015775999996E-3</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="41">
         <v>0.84931506849320004</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="41">
         <v>-2.4290283649999999E-4</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="43">
+      <c r="B41" s="41">
         <v>0.86301369863010002</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="41">
         <v>6.6630146359000003E-3</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="41">
         <v>0.86301369863010002</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="41">
         <v>-6.1040126534999996E-3</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="41">
         <v>0.86301369863010002</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="41">
         <v>-1.1504406560000001E-4</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="43">
+      <c r="B42" s="41">
         <v>0.88767123287670002</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="41">
         <v>6.6833430681999999E-3</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="41">
         <v>0.88767123287670002</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="41">
         <v>-6.7739739283000002E-3</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="41">
         <v>0.88767123287670002</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="41">
         <v>-3.6385621630000001E-4</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="43">
+      <c r="B43" s="41">
         <v>0.89589041095889999</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="41">
         <v>6.6898705465000003E-3</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="41">
         <v>0.89589041095889999</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="41">
         <v>-6.9789350129E-3</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="41">
         <v>0.89589041095889999</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="41">
         <v>-1.3705592610000001E-4</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="43">
+      <c r="B44" s="41">
         <v>1</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="41">
         <v>6.7632644391E-3</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="41">
         <v>1</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="41">
         <v>-6.8277489972000003E-3</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="41">
         <v>1</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="41">
         <v>9.86268326E-5</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="43">
+      <c r="B45" s="41">
         <v>1.0109589041096001</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="41">
         <v>6.7701107671E-3</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="41">
         <v>1.0109589041096001</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="41">
         <v>-6.6575289305000002E-3</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="41">
         <v>1.0109589041096001</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="41">
         <v>8.87202968E-5</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="43">
+      <c r="B46" s="41">
         <v>1.0164383561643999</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <v>6.7734785699999998E-3</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="41">
         <v>1.0164383561643999</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="41">
         <v>-6.5746055189000001E-3</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="41">
         <v>1.0164383561643999</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="41">
         <v>8.5471060699999994E-5</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="43">
+      <c r="B47" s="41">
         <v>1.2630136986300999</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <v>6.9809357000000004E-3</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="41">
         <v>1.2630136986300999</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="41">
         <v>-4.3576966562999999E-3</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="41">
         <v>1.2630136986300999</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="41">
         <v>3.5723856600000001E-5</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="43">
+      <c r="B48" s="41">
         <v>1.5150684931506999</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="41">
         <v>7.2172558099999999E-3</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="41">
         <v>1.5150684931506999</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="41">
         <v>-3.8549288913999999E-3</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="41">
         <v>1.5150684931506999</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="41">
         <v>9.7648731999999997E-6</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="43">
+      <c r="B49" s="41">
         <v>1.7643835616437999</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="41">
         <v>7.46919165E-3</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="41">
         <v>1.7643835616437999</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="41">
         <v>-4.0126723517E-3</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="41">
         <v>1.7643835616437999</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="41">
         <v>-6.9889569999999996E-7</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="43">
+      <c r="B50" s="41">
         <v>1.9972602739726</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="41">
         <v>7.7177879162999997E-3</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="41">
         <v>1.9972602739726</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="41">
         <v>-4.2358605934000003E-3</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="41">
         <v>1.9972602739726</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="41">
         <v>-4.5267232200000003E-5</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="43">
+      <c r="B51" s="41">
         <v>2.0082191780822001</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="41">
         <v>7.7297740676000003E-3</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="41">
         <v>2.0082191780822001</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="41">
         <v>-4.2446973020000001E-3</v>
       </c>
-      <c r="H51" s="43">
+      <c r="H51" s="41">
         <v>2.0082191780822001</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I51" s="41">
         <v>-3.1501870000000002E-7</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="43">
+      <c r="B52" s="41">
         <v>2.0136986301370001</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="41">
         <v>7.7357759799999998E-3</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="41">
         <v>2.0136986301370001</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="41">
         <v>-4.2473483202999998E-3</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="41">
         <v>2.0136986301370001</v>
       </c>
-      <c r="I52" s="43">
+      <c r="I52" s="41">
         <v>1.3402516000000001E-6</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="43">
+      <c r="B53" s="41">
         <v>2.9972602739726</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="41">
         <v>8.8854232401000006E-3</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="41">
         <v>2.9972602739726</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="41">
         <v>-3.8447712597000001E-3</v>
       </c>
-      <c r="H53" s="43">
+      <c r="H53" s="41">
         <v>2.9972602739726</v>
       </c>
-      <c r="I53" s="43">
+      <c r="I53" s="41">
         <v>-2.7958050300000001E-5</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="43">
+      <c r="B54" s="41">
         <v>3.0082191780822001</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="41">
         <v>8.8988703530000005E-3</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="41">
         <v>3.0082191780822001</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="41">
         <v>-3.8401977962000001E-3</v>
       </c>
-      <c r="H54" s="43">
+      <c r="H54" s="41">
         <v>3.0082191780822001</v>
       </c>
-      <c r="I54" s="43">
+      <c r="I54" s="41">
         <v>1.3225377E-6</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="43">
+      <c r="B55" s="41">
         <v>3.0136986301370001</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="41">
         <v>8.9055982300000006E-3</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="41">
         <v>3.0136986301370001</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="41">
         <v>-3.8363314240000002E-3</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="41">
         <v>3.0136986301370001</v>
       </c>
-      <c r="I55" s="43">
+      <c r="I55" s="41">
         <v>-3.3861605999999998E-5</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="43">
+      <c r="B56" s="41">
         <v>4.0082191780822001</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="41">
         <v>1.0149245695399999E-2</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="41">
         <v>4.0082191780822001</v>
       </c>
-      <c r="F56" s="43">
+      <c r="F56" s="41">
         <v>-3.0420596103999998E-3</v>
       </c>
-      <c r="H56" s="43">
+      <c r="H56" s="41">
         <v>4.0082191780822001</v>
       </c>
-      <c r="I56" s="43">
+      <c r="I56" s="41">
         <v>3.4760200000000002E-7</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="43">
+      <c r="B57" s="41">
         <v>4.0136986301370001</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="41">
         <v>1.0156116539999999E-2</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="41">
         <v>4.0136986301370001</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F57" s="41">
         <v>-3.0373640461999999E-3</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="41">
         <v>4.0136986301370001</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I57" s="41">
         <v>-1.9807499500000002E-5</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="43">
+      <c r="B58" s="41">
         <v>5.0054794520548</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="41">
         <v>1.13947054096E-2</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="41">
         <v>5.0054794520548</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F58" s="41">
         <v>-2.0140472746999999E-3</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="41">
         <v>5.0054794520548</v>
       </c>
-      <c r="I58" s="43">
+      <c r="I58" s="41">
         <v>1.2203675000000001E-6</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="43">
+      <c r="B59" s="41">
         <v>5.0109589041096001</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="41">
         <v>1.14015468086E-2</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="41">
         <v>5.0109589041096001</v>
       </c>
-      <c r="F59" s="43">
+      <c r="F59" s="41">
         <v>-2.0077694739999998E-3</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="41">
         <v>5.0109589041096001</v>
       </c>
-      <c r="I59" s="43">
+      <c r="I59" s="41">
         <v>-1.3999513099999999E-5</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="43">
+      <c r="B60" s="41">
         <v>5.0246575342466002</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="41">
         <v>1.1418651239999999E-2</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="41">
         <v>5.0246575342466002</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F60" s="41">
         <v>-1.9920578539E-3</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H60" s="41">
         <v>5.0246575342466002</v>
       </c>
-      <c r="I60" s="43">
+      <c r="I60" s="41">
         <v>1.2243287E-6</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="43">
+      <c r="B61" s="41">
         <v>6.0219178082192002</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="41">
         <v>1.264840423E-2</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="41">
         <v>6.0219178082192002</v>
       </c>
-      <c r="F61" s="43">
+      <c r="F61" s="41">
         <v>-7.8795282479999997E-4</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="41">
         <v>6.0219178082192002</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="41">
         <v>1.7979840999999999E-6</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="43">
+      <c r="B62" s="41">
         <v>7.0027397260274</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="41">
         <v>1.3786018799899999E-2</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="41">
         <v>7.0027397260274</v>
       </c>
-      <c r="F62" s="43">
+      <c r="F62" s="41">
         <v>4.8176653209999997E-4</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H62" s="41">
         <v>7.0027397260274</v>
       </c>
-      <c r="I62" s="43">
+      <c r="I62" s="41">
         <v>-6.9743163999999996E-6</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="43">
+      <c r="B63" s="41">
         <v>7.0136986301370001</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="41">
         <v>1.37982907523E-2</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="41">
         <v>7.0136986301370001</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="41">
         <v>4.9611376510000002E-4</v>
       </c>
-      <c r="H63" s="43">
+      <c r="H63" s="41">
         <v>7.0136986301370001</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="41">
         <v>2.3987668000000001E-6</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="43">
+      <c r="B64" s="41">
         <v>7.0191780821918002</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="41">
         <v>1.380442326E-2</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="41">
         <v>7.0191780821918002</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="41">
         <v>5.0328735750000003E-4</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="41">
         <v>7.0191780821918002</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="41">
         <v>2.4007969000000001E-6</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="43">
+      <c r="B65" s="41">
         <v>8.0164383561644001</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="41">
         <v>1.4880430300000001E-2</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="41">
         <v>8.0164383561644001</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="41">
         <v>1.7981620868E-3</v>
       </c>
-      <c r="H65" s="43">
+      <c r="H65" s="41">
         <v>8.0164383561644001</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="41">
         <v>2.6608752E-6</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="43">
+      <c r="B66" s="41">
         <v>9.0191780821918002</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="41">
         <v>1.5873413940000001E-2</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>9.0191780821918002</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="41">
         <v>3.0369365098999999E-3</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="41">
         <v>9.0191780821918002</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="41">
         <v>-3.8421239999999998E-6</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="43">
+      <c r="B67" s="41">
         <v>10.0082191780822</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="41">
         <v>1.6754918943800001E-2</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="41">
         <v>10.0082191780822</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="41">
         <v>4.1362766215000003E-3</v>
       </c>
-      <c r="H67" s="43">
+      <c r="H67" s="41">
         <v>10.0082191780822</v>
       </c>
-      <c r="I67" s="43">
+      <c r="I67" s="41">
         <v>2.4127046E-6</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="43">
+      <c r="B68" s="41">
         <v>10.013698630137</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="41">
         <v>1.6759567579E-2</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="41">
         <v>10.013698630137</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="41">
         <v>4.1420122488000002E-3</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H68" s="41">
         <v>10.013698630137</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="41">
         <v>-6.3167837999999999E-6</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="43">
+      <c r="B69" s="41">
         <v>10.027397260274</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="41">
         <v>1.6771179109999999E-2</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="41">
         <v>10.027397260274</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="41">
         <v>4.1563347071000003E-3</v>
       </c>
-      <c r="H69" s="43">
+      <c r="H69" s="41">
         <v>10.027397260274</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="41">
         <v>2.4069873000000001E-6</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="43">
+      <c r="B70" s="41">
         <v>12.0246575342466</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="41">
         <v>1.8301476769999998E-2</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="41">
         <v>12.0246575342466</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F70" s="41">
         <v>5.9841452153999997E-3</v>
       </c>
-      <c r="H70" s="43">
+      <c r="H70" s="41">
         <v>12.0246575342466</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="41">
         <v>1.8319129E-6</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="43">
+      <c r="B71" s="41">
         <v>15.0164383561644</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="41">
         <v>1.99887654406E-2</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E71" s="41">
         <v>15.0164383561644</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="41">
         <v>7.8839890558999991E-3</v>
       </c>
-      <c r="H71" s="43">
+      <c r="H71" s="41">
         <v>15.0164383561644</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I71" s="41">
         <v>1.2807922999999999E-6</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="43">
+      <c r="B72" s="41">
         <v>15.0219178082192</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="41">
         <v>1.9991276459999999E-2</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="41">
         <v>15.0219178082192</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="41">
         <v>7.8867101130999998E-3</v>
       </c>
-      <c r="H72" s="43">
+      <c r="H72" s="41">
         <v>15.0219178082192</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="41">
         <v>-2.9263192E-6</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="43">
+      <c r="B73" s="41">
         <v>20.0191780821918</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="41">
         <v>2.1624072629099999E-2</v>
       </c>
-      <c r="E73" s="43">
+      <c r="E73" s="41">
         <v>20.0191780821918</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="41">
         <v>9.5551154085000006E-3</v>
       </c>
-      <c r="H73" s="43">
+      <c r="H73" s="41">
         <v>20.0191780821918</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="41">
         <v>7.5349260000000001E-7</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="43">
+      <c r="B74" s="41">
         <v>20.0246575342466</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="41">
         <v>2.1625262249999999E-2</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74" s="41">
         <v>20.0246575342466</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F74" s="41">
         <v>9.5562456159000008E-3</v>
       </c>
-      <c r="H74" s="43">
+      <c r="H74" s="41">
         <v>20.0246575342466</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="41">
         <v>-2.6090055E-6</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="43">
+      <c r="B75" s="41">
         <v>25.0301369863014</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="41">
         <v>2.233253889E-2</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="41">
         <v>25.0301369863014</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="41">
         <v>1.0201579468899999E-2</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="41">
         <v>25.0301369863014</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="41">
         <v>-2.1142105999999999E-6</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="43">
+      <c r="B76" s="41">
         <v>30.027397260274</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="41">
         <v>2.2527480838600001E-2</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="41">
         <v>30.027397260274</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F76" s="41">
         <v>1.03949678881E-2</v>
       </c>
-      <c r="H76" s="43">
+      <c r="H76" s="41">
         <v>30.027397260274</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="41">
         <v>6.5530229999999998E-7</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="43">
+      <c r="B77" s="41">
         <v>30.0328767123288</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="41">
         <v>2.2527515929999999E-2</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="41">
         <v>30.0328767123288</v>
       </c>
-      <c r="F77" s="43">
+      <c r="F77" s="41">
         <v>1.0395127883700001E-2</v>
       </c>
-      <c r="H77" s="43">
+      <c r="H77" s="41">
         <v>30.0328767123288</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="41">
         <v>6.5531090000000004E-7</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="43">
+      <c r="B78" s="41">
         <v>40.0438356164384</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="41">
         <v>2.2212955789999999E-2</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="41">
         <v>40.0438356164384</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="41">
         <v>1.04285935224E-2</v>
       </c>
-      <c r="H78" s="43">
+      <c r="H78" s="41">
         <v>40.0438356164384</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="41">
         <v>6.940074E-7</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="43">
+      <c r="B79" s="41">
         <v>50.0520547945206</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="41">
         <v>2.1560213200000001E-2</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="41">
         <v>50.0520547945206</v>
       </c>
-      <c r="F79" s="43">
+      <c r="F79" s="41">
         <v>1.0250870251000001E-2</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="41">
         <v>50.0520547945206</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="41">
         <v>4.080034E-7</v>
       </c>
     </row>
@@ -30879,7 +30879,7 @@
       </c>
     </row>
     <row r="96" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="B96" s="41">
+      <c r="B96" s="42">
         <v>1</v>
       </c>
       <c r="C96" s="24" t="s">
@@ -31331,7 +31331,7 @@
       <c r="IS96" s="18"/>
     </row>
     <row r="97" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="24" t="s">
         <v>37</v>
       </c>
@@ -31781,7 +31781,7 @@
       <c r="IS97" s="26"/>
     </row>
     <row r="98" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B98" s="41">
+      <c r="B98" s="42">
         <v>2</v>
       </c>
       <c r="C98" s="24" t="s">
@@ -32233,7 +32233,7 @@
       <c r="IS98" s="18"/>
     </row>
     <row r="99" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="24" t="s">
         <v>37</v>
       </c>
@@ -32683,7 +32683,7 @@
       <c r="IS99" s="26"/>
     </row>
     <row r="100" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B100" s="41">
+      <c r="B100" s="42">
         <v>3</v>
       </c>
       <c r="C100" s="24" t="s">
@@ -33075,7 +33075,7 @@
       <c r="IS100" s="18"/>
     </row>
     <row r="101" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="24" t="s">
         <v>37</v>
       </c>
@@ -33465,7 +33465,7 @@
       <c r="IS101" s="26"/>
     </row>
     <row r="102" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B102" s="41">
+      <c r="B102" s="42">
         <v>4</v>
       </c>
       <c r="C102" s="24" t="s">
@@ -33869,7 +33869,7 @@
       <c r="IS102" s="18"/>
     </row>
     <row r="103" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B103" s="41"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="24" t="s">
         <v>37</v>
       </c>
@@ -34271,7 +34271,7 @@
       <c r="IS103" s="26"/>
     </row>
     <row r="104" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B104" s="41">
+      <c r="B104" s="42">
         <v>5</v>
       </c>
       <c r="C104" s="24" t="s">
@@ -34687,7 +34687,7 @@
       <c r="IS104" s="18"/>
     </row>
     <row r="105" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="24" t="s">
         <v>37</v>
       </c>
@@ -35101,7 +35101,7 @@
       <c r="IS105" s="26"/>
     </row>
     <row r="106" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B106" s="41">
+      <c r="B106" s="42">
         <v>6</v>
       </c>
       <c r="C106" s="24" t="s">
@@ -35485,7 +35485,7 @@
       <c r="IS106" s="18"/>
     </row>
     <row r="107" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="24" t="s">
         <v>37</v>
       </c>
@@ -35867,7 +35867,7 @@
       <c r="IS107" s="26"/>
     </row>
     <row r="108" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B108" s="41">
+      <c r="B108" s="42">
         <v>7</v>
       </c>
       <c r="C108" s="24" t="s">
@@ -36267,7 +36267,7 @@
       <c r="IS108" s="18"/>
     </row>
     <row r="109" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B109" s="41"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="24" t="s">
         <v>37</v>
       </c>
@@ -36665,7 +36665,7 @@
       <c r="IS109" s="26"/>
     </row>
     <row r="110" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B110" s="41">
+      <c r="B110" s="42">
         <v>8</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -37057,7 +37057,7 @@
       <c r="IS110" s="18"/>
     </row>
     <row r="111" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B111" s="41"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="24" t="s">
         <v>37</v>
       </c>
@@ -37447,7 +37447,7 @@
       <c r="IS111" s="26"/>
     </row>
     <row r="112" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B112" s="41">
+      <c r="B112" s="42">
         <v>9</v>
       </c>
       <c r="C112" s="24" t="s">
@@ -37859,7 +37859,7 @@
       <c r="IS112" s="18"/>
     </row>
     <row r="113" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B113" s="41"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="24" t="s">
         <v>37</v>
       </c>
@@ -38269,7 +38269,7 @@
       <c r="IS113" s="26"/>
     </row>
     <row r="114" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B114" s="41">
+      <c r="B114" s="42">
         <v>10</v>
       </c>
       <c r="C114" s="24" t="s">
@@ -38741,7 +38741,7 @@
       <c r="IS114" s="18"/>
     </row>
     <row r="115" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B115" s="41"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="24" t="s">
         <v>37</v>
       </c>
@@ -39211,7 +39211,7 @@
       <c r="IS115" s="26"/>
     </row>
     <row r="116" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B116" s="41">
+      <c r="B116" s="42">
         <v>11</v>
       </c>
       <c r="C116" s="24" t="s">
@@ -39735,7 +39735,7 @@
       <c r="IS116" s="18"/>
     </row>
     <row r="117" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B117" s="41"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="24" t="s">
         <v>37</v>
       </c>
@@ -40257,7 +40257,7 @@
       <c r="IS117" s="26"/>
     </row>
     <row r="118" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B118" s="41">
+      <c r="B118" s="42">
         <v>12</v>
       </c>
       <c r="C118" s="24" t="s">
@@ -40865,7 +40865,7 @@
       <c r="IS118" s="18"/>
     </row>
     <row r="119" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B119" s="41"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="24" t="s">
         <v>37</v>
       </c>
@@ -41471,7 +41471,7 @@
       <c r="IS119" s="26"/>
     </row>
     <row r="120" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B120" s="41">
+      <c r="B120" s="42">
         <v>13</v>
       </c>
       <c r="C120" s="24" t="s">
@@ -42131,7 +42131,7 @@
       <c r="IS120" s="18"/>
     </row>
     <row r="121" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B121" s="41"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="24" t="s">
         <v>37</v>
       </c>
@@ -42789,7 +42789,7 @@
       <c r="IS121" s="26"/>
     </row>
     <row r="122" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B122" s="41">
+      <c r="B122" s="42">
         <v>14</v>
       </c>
       <c r="C122" s="24" t="s">
@@ -43449,7 +43449,7 @@
       <c r="IS122" s="18"/>
     </row>
     <row r="123" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B123" s="41"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="24" t="s">
         <v>37</v>
       </c>
@@ -44107,7 +44107,7 @@
       <c r="IS123" s="26"/>
     </row>
     <row r="124" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B124" s="41">
+      <c r="B124" s="42">
         <v>15</v>
       </c>
       <c r="C124" s="24" t="s">
@@ -44365,7 +44365,7 @@
       <c r="IS124" s="18"/>
     </row>
     <row r="125" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B125" s="41"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="24" t="s">
         <v>37</v>
       </c>
@@ -44621,7 +44621,7 @@
       <c r="IS125" s="26"/>
     </row>
     <row r="126" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B126" s="41">
+      <c r="B126" s="42">
         <v>16</v>
       </c>
       <c r="C126" s="24" t="s">
@@ -44879,7 +44879,7 @@
       <c r="IS126" s="18"/>
     </row>
     <row r="127" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B127" s="41"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="24" t="s">
         <v>37</v>
       </c>
@@ -45135,7 +45135,7 @@
       <c r="IS127" s="26"/>
     </row>
     <row r="128" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B128" s="41">
+      <c r="B128" s="42">
         <v>17</v>
       </c>
       <c r="C128" s="24" t="s">
@@ -45393,7 +45393,7 @@
       <c r="IS128" s="18"/>
     </row>
     <row r="129" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B129" s="41"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="24" t="s">
         <v>37</v>
       </c>
@@ -45649,7 +45649,7 @@
       <c r="IS129" s="26"/>
     </row>
     <row r="130" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B130" s="41">
+      <c r="B130" s="42">
         <v>18</v>
       </c>
       <c r="C130" s="24" t="s">
@@ -45907,7 +45907,7 @@
       <c r="IS130" s="18"/>
     </row>
     <row r="131" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B131" s="41"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="24" t="s">
         <v>37</v>
       </c>
@@ -46163,7 +46163,7 @@
       <c r="IS131" s="26"/>
     </row>
     <row r="132" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B132" s="41">
+      <c r="B132" s="42">
         <v>19</v>
       </c>
       <c r="C132" s="24" t="s">
@@ -46421,7 +46421,7 @@
       <c r="IS132" s="18"/>
     </row>
     <row r="133" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B133" s="41"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="24" t="s">
         <v>37</v>
       </c>
@@ -46677,7 +46677,7 @@
       <c r="IS133" s="26"/>
     </row>
     <row r="134" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B134" s="41">
+      <c r="B134" s="42">
         <v>20</v>
       </c>
       <c r="C134" s="24" t="s">
@@ -46935,7 +46935,7 @@
       <c r="IS134" s="18"/>
     </row>
     <row r="135" spans="2:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="42"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="27" t="s">
         <v>37</v>
       </c>
@@ -47192,14 +47192,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="B98:B99"/>
@@ -47212,6 +47204,14 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/source/LocVol Parameters.xlsx
+++ b/source/LocVol Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C53B0B-1432-4F1D-99E7-DB81AEC6CD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1455" windowWidth="23295" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="32385" yWindow="1605" windowWidth="24945" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRSMFORM" sheetId="1" r:id="rId1"/>
@@ -24628,7 +24628,7 @@
   <dimension ref="B1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47191,14 +47191,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="B98:B99"/>
@@ -47211,6 +47203,14 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/source/LocVol Parameters.xlsx
+++ b/source/LocVol Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73264B5F-643C-40D2-A6CE-5BB9BE8E92B7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32385" yWindow="1605" windowWidth="24945" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29595" yWindow="2115" windowWidth="24945" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRSMFORM" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>Curve1</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>Spot</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>csc</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -708,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24625,34 +24640,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:X79"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="N8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="40">
         <v>1.0822999976901</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
       <c r="K4" t="s">
         <v>5</v>
       </c>
@@ -24663,7 +24687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -24719,7 +24743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="40">
         <v>2.7397260273999999E-3</v>
       </c>
@@ -24775,7 +24799,7 @@
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="40">
         <v>5.4794520547999997E-3</v>
       </c>
@@ -24831,7 +24855,7 @@
         <v>0.1203924027461</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="40">
         <v>1.3698630137E-2</v>
       </c>
@@ -24850,6 +24874,9 @@
       <c r="I8" s="40">
         <v>2.8758179006000001E-3</v>
       </c>
+      <c r="J8" s="43" t="s">
+        <v>65</v>
+      </c>
       <c r="K8" s="40">
         <v>3.8356164383599997E-2</v>
       </c>
@@ -24887,7 +24914,7 @@
         <v>0.1119965744464</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="40">
         <v>1.9178082191799999E-2</v>
       </c>
@@ -24943,7 +24970,7 @@
         <v>0.1107107890606</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="40">
         <v>2.4657534246599999E-2</v>
       </c>
@@ -24999,7 +25026,10 @@
         <v>0.11952873647789999</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>65</v>
+      </c>
       <c r="B11" s="40">
         <v>3.8356164383599997E-2</v>
       </c>
@@ -25055,7 +25085,7 @@
         <v>0.1173419741591</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="40">
         <v>4.3835616438399998E-2</v>
       </c>
@@ -25111,7 +25141,7 @@
         <v>0.11274331937199999</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="40">
         <v>6.3013698630100007E-2</v>
       </c>
@@ -25167,7 +25197,7 @@
         <v>0.112448036487</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="40">
         <v>7.9452054794500002E-2</v>
       </c>
@@ -25223,7 +25253,7 @@
         <v>0.11238719204600001</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="40">
         <v>9.0410958904100003E-2</v>
       </c>
@@ -25279,7 +25309,7 @@
         <v>0.1121262326205</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="40">
         <v>9.5890410958899996E-2</v>
       </c>
@@ -26811,8 +26841,8 @@
   </sheetPr>
   <dimension ref="A2:IS135"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47191,6 +47221,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="B98:B99"/>
@@ -47203,14 +47241,6 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/source/LocVol Parameters.xlsx
+++ b/source/LocVol Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73264B5F-643C-40D2-A6CE-5BB9BE8E92B7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7039FAF1-2AA9-439C-ACEC-4F790AA6FE01}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="2115" windowWidth="24945" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-990" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRSMFORM" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>Curve1</t>
   </si>
@@ -715,14 +715,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24642,8 +24642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="N8:R8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24874,7 +24874,7 @@
       <c r="I8" s="40">
         <v>2.8758179006000001E-3</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="40">
@@ -25027,7 +25027,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="40">
@@ -25868,6 +25868,9 @@
       <c r="I31" s="40">
         <v>4.6805431299999997E-5</v>
       </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="40">
@@ -25888,8 +25891,23 @@
       <c r="I32" s="40">
         <v>-2.4588188700000001E-5</v>
       </c>
+      <c r="N32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="40">
         <v>0.61369863013699999</v>
       </c>
@@ -25908,8 +25926,23 @@
       <c r="I33" s="40">
         <v>-7.6659210400000007E-5</v>
       </c>
+      <c r="N33" s="40">
+        <v>1.0727260244829</v>
+      </c>
+      <c r="O33" s="40">
+        <v>1.0773555473554</v>
+      </c>
+      <c r="P33" s="40">
+        <v>1.0824548120705999</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>1.0877712353913001</v>
+      </c>
+      <c r="R33" s="40">
+        <v>1.0928611436024001</v>
+      </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="40">
         <v>0.61917808219180004</v>
       </c>
@@ -25928,8 +25961,23 @@
       <c r="I34" s="40">
         <v>-2.806874436E-4</v>
       </c>
+      <c r="N34" s="40">
+        <v>1.0608100596131</v>
+      </c>
+      <c r="O34" s="40">
+        <v>1.0712263148159</v>
+      </c>
+      <c r="P34" s="40">
+        <v>1.0826422175114001</v>
+      </c>
+      <c r="Q34" s="40">
+        <v>1.0945434918243999</v>
+      </c>
+      <c r="R34" s="40">
+        <v>1.1060402313711</v>
+      </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="40">
         <v>0.63835616438359999</v>
       </c>
@@ -25948,8 +25996,23 @@
       <c r="I35" s="40">
         <v>-6.0652694000000001E-6</v>
       </c>
+      <c r="N35" s="40">
+        <v>1.0539781449123</v>
+      </c>
+      <c r="O35" s="40">
+        <v>1.0679035858624</v>
+      </c>
+      <c r="P35" s="40">
+        <v>1.0829283667131999</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>1.0985408873741001</v>
+      </c>
+      <c r="R35" s="40">
+        <v>1.1138330420706</v>
+      </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="40">
         <v>0.64657534246579995</v>
       </c>
@@ -25968,8 +26031,23 @@
       <c r="I36" s="40">
         <v>5.1589089099999999E-5</v>
       </c>
+      <c r="N36" s="40">
+        <v>1.0418062745665999</v>
+      </c>
+      <c r="O36" s="40">
+        <v>1.0622231744132999</v>
+      </c>
+      <c r="P36" s="40">
+        <v>1.0836344624465</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>1.1057243779239001</v>
+      </c>
+      <c r="R36" s="40">
+        <v>1.127924371722</v>
+      </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="40">
         <v>0.73424657534250004</v>
       </c>
@@ -25988,8 +26066,23 @@
       <c r="I37" s="40">
         <v>-1.6174401870000001E-4</v>
       </c>
+      <c r="N37" s="40">
+        <v>1.0198978458435</v>
+      </c>
+      <c r="O37" s="40">
+        <v>1.0520756891312</v>
+      </c>
+      <c r="P37" s="40">
+        <v>1.0852981845758001</v>
+      </c>
+      <c r="Q37" s="40">
+        <v>1.1192192492705</v>
+      </c>
+      <c r="R37" s="40">
+        <v>1.1538059215845</v>
+      </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="40">
         <v>0.75068493150680005</v>
       </c>
@@ -26008,8 +26101,23 @@
       <c r="I38" s="40">
         <v>-1.028467048E-4</v>
       </c>
+      <c r="N38" s="40">
+        <v>1.0058038539642</v>
+      </c>
+      <c r="O38" s="40">
+        <v>1.0457747662464001</v>
+      </c>
+      <c r="P38" s="40">
+        <v>1.0869020003701</v>
+      </c>
+      <c r="Q38" s="40">
+        <v>1.1286745281187001</v>
+      </c>
+      <c r="R38" s="40">
+        <v>1.1714163164200999</v>
+      </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="40">
         <v>0.76164383561640003</v>
       </c>
@@ -26028,8 +26136,23 @@
       <c r="I39" s="40">
         <v>2.0836517799999999E-5</v>
       </c>
+      <c r="N39" s="40">
+        <v>0.97804090244789998</v>
+      </c>
+      <c r="O39" s="40">
+        <v>1.0343691196021001</v>
+      </c>
+      <c r="P39" s="40">
+        <v>1.0919900365121</v>
+      </c>
+      <c r="Q39" s="40">
+        <v>1.1500061624697999</v>
+      </c>
+      <c r="R39" s="40">
+        <v>1.2097180230955</v>
+      </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="40">
         <v>0.84931506849320004</v>
       </c>
@@ -26048,8 +26171,23 @@
       <c r="I40" s="40">
         <v>-2.4290283649999999E-4</v>
       </c>
+      <c r="N40" s="40">
+        <v>0.95744594483519996</v>
+      </c>
+      <c r="O40" s="40">
+        <v>1.0264727609905</v>
+      </c>
+      <c r="P40" s="40">
+        <v>1.0975273849255001</v>
+      </c>
+      <c r="Q40" s="40">
+        <v>1.1694135421633001</v>
+      </c>
+      <c r="R40" s="40">
+        <v>1.2441955366813</v>
+      </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="40">
         <v>0.86301369863010002</v>
       </c>
@@ -26068,8 +26206,23 @@
       <c r="I41" s="40">
         <v>-1.1504406560000001E-4</v>
       </c>
+      <c r="N41" s="40">
+        <v>0.94181387711169995</v>
+      </c>
+      <c r="O41" s="40">
+        <v>1.0212114692365999</v>
+      </c>
+      <c r="P41" s="40">
+        <v>1.1034778960942999</v>
+      </c>
+      <c r="Q41" s="40">
+        <v>1.1872917704288</v>
+      </c>
+      <c r="R41" s="40">
+        <v>1.2755193361949999</v>
+      </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="40">
         <v>0.88767123287670002</v>
       </c>
@@ -26088,8 +26241,23 @@
       <c r="I42" s="40">
         <v>-3.6385621630000001E-4</v>
       </c>
+      <c r="N42" s="40">
+        <v>0.90042792496390001</v>
+      </c>
+      <c r="O42" s="40">
+        <v>1.0073796800739001</v>
+      </c>
+      <c r="P42" s="40">
+        <v>1.1215384780538999</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>1.2424486597266999</v>
+      </c>
+      <c r="R42" s="40">
+        <v>1.3753185664284</v>
+      </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="40">
         <v>0.89589041095889999</v>
       </c>
@@ -26108,8 +26276,23 @@
       <c r="I43" s="40">
         <v>-1.3705592610000001E-4</v>
       </c>
+      <c r="N43" s="40">
+        <v>0.87547900670870005</v>
+      </c>
+      <c r="O43" s="40">
+        <v>1.0031181012804999</v>
+      </c>
+      <c r="P43" s="40">
+        <v>1.1450649183521</v>
+      </c>
+      <c r="Q43" s="40">
+        <v>1.3033626022547999</v>
+      </c>
+      <c r="R43" s="40">
+        <v>1.4851170685057</v>
+      </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="40">
         <v>1</v>
       </c>
@@ -26128,8 +26311,23 @@
       <c r="I44" s="40">
         <v>9.86268326E-5</v>
       </c>
+      <c r="N44" s="40">
+        <v>0.84111859973860004</v>
+      </c>
+      <c r="O44" s="40">
+        <v>1.0039245368603</v>
+      </c>
+      <c r="P44" s="40">
+        <v>1.1950129417736</v>
+      </c>
+      <c r="Q44" s="40">
+        <v>1.4215725085412001</v>
+      </c>
+      <c r="R44" s="40">
+        <v>1.6968820364574999</v>
+      </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="40">
         <v>1.0109589041096001</v>
       </c>
@@ -26148,8 +26346,23 @@
       <c r="I45" s="40">
         <v>8.87202968E-5</v>
       </c>
+      <c r="N45" s="40">
+        <v>0.81659865197680004</v>
+      </c>
+      <c r="O45" s="40">
+        <v>1.0090643204533001</v>
+      </c>
+      <c r="P45" s="40">
+        <v>1.2453515907585</v>
+      </c>
+      <c r="Q45" s="40">
+        <v>1.5397760422144999</v>
+      </c>
+      <c r="R45" s="40">
+        <v>1.9150657702731</v>
+      </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="40">
         <v>1.0164383561643999</v>
       </c>
@@ -26168,8 +26381,23 @@
       <c r="I46" s="40">
         <v>8.5471060699999994E-5</v>
       </c>
+      <c r="N46" s="40">
+        <v>0.76428424729959998</v>
+      </c>
+      <c r="O46" s="40">
+        <v>1.0103622687225999</v>
+      </c>
+      <c r="P46" s="40">
+        <v>1.3320278121696001</v>
+      </c>
+      <c r="Q46" s="40">
+        <v>1.7497661519151</v>
+      </c>
+      <c r="R46" s="40">
+        <v>2.3036276843243999</v>
+      </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="40">
         <v>1.2630136986300999</v>
       </c>
@@ -26188,8 +26416,13 @@
       <c r="I47" s="40">
         <v>3.5723856600000001E-5</v>
       </c>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="40">
         <v>1.5150684931506999</v>
       </c>
@@ -26208,8 +26441,13 @@
       <c r="I48" s="40">
         <v>9.7648731999999997E-6</v>
       </c>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="40">
         <v>1.7643835616437999</v>
       </c>
@@ -26228,8 +26466,13 @@
       <c r="I49" s="40">
         <v>-6.9889569999999996E-7</v>
       </c>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="40">
         <v>1.9972602739726</v>
       </c>
@@ -26248,8 +26491,13 @@
       <c r="I50" s="40">
         <v>-4.5267232200000003E-5</v>
       </c>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="40">
         <v>2.0082191780822001</v>
       </c>
@@ -26268,8 +26516,13 @@
       <c r="I51" s="40">
         <v>-3.1501870000000002E-7</v>
       </c>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="40">
         <v>2.0136986301370001</v>
       </c>
@@ -26288,8 +26541,13 @@
       <c r="I52" s="40">
         <v>1.3402516000000001E-6</v>
       </c>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="40">
         <v>2.9972602739726</v>
       </c>
@@ -26308,8 +26566,13 @@
       <c r="I53" s="40">
         <v>-2.7958050300000001E-5</v>
       </c>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="40">
         <v>3.0082191780822001</v>
       </c>
@@ -26328,8 +26591,13 @@
       <c r="I54" s="40">
         <v>1.3225377E-6</v>
       </c>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="40">
         <v>3.0136986301370001</v>
       </c>
@@ -26349,7 +26617,7 @@
         <v>-3.3861605999999998E-5</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="40">
         <v>4.0082191780822001</v>
       </c>
@@ -26369,7 +26637,7 @@
         <v>3.4760200000000002E-7</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="40">
         <v>4.0136986301370001</v>
       </c>
@@ -26389,7 +26657,7 @@
         <v>-1.9807499500000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="40">
         <v>5.0054794520548</v>
       </c>
@@ -26409,7 +26677,7 @@
         <v>1.2203675000000001E-6</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="40">
         <v>5.0109589041096001</v>
       </c>
@@ -26429,7 +26697,7 @@
         <v>-1.3999513099999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="40">
         <v>5.0246575342466002</v>
       </c>
@@ -26449,7 +26717,7 @@
         <v>1.2243287E-6</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="40">
         <v>6.0219178082192002</v>
       </c>
@@ -26469,7 +26737,7 @@
         <v>1.7979840999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="40">
         <v>7.0027397260274</v>
       </c>
@@ -26489,7 +26757,7 @@
         <v>-6.9743163999999996E-6</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="40">
         <v>7.0136986301370001</v>
       </c>
@@ -26509,7 +26777,7 @@
         <v>2.3987668000000001E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="40">
         <v>7.0191780821918002</v>
       </c>
@@ -26841,8 +27109,8 @@
   </sheetPr>
   <dimension ref="A2:IS135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:V4"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30908,7 +31176,7 @@
       </c>
     </row>
     <row r="96" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="B96" s="41">
+      <c r="B96" s="42">
         <v>1</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -31360,7 +31628,7 @@
       <c r="IS96" s="17"/>
     </row>
     <row r="97" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="23" t="s">
         <v>37</v>
       </c>
@@ -31810,7 +32078,7 @@
       <c r="IS97" s="25"/>
     </row>
     <row r="98" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B98" s="41">
+      <c r="B98" s="42">
         <v>2</v>
       </c>
       <c r="C98" s="23" t="s">
@@ -32262,7 +32530,7 @@
       <c r="IS98" s="17"/>
     </row>
     <row r="99" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="23" t="s">
         <v>37</v>
       </c>
@@ -32712,7 +32980,7 @@
       <c r="IS99" s="25"/>
     </row>
     <row r="100" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B100" s="41">
+      <c r="B100" s="42">
         <v>3</v>
       </c>
       <c r="C100" s="23" t="s">
@@ -33104,7 +33372,7 @@
       <c r="IS100" s="17"/>
     </row>
     <row r="101" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="23" t="s">
         <v>37</v>
       </c>
@@ -33494,7 +33762,7 @@
       <c r="IS101" s="25"/>
     </row>
     <row r="102" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B102" s="41">
+      <c r="B102" s="42">
         <v>4</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -33898,7 +34166,7 @@
       <c r="IS102" s="17"/>
     </row>
     <row r="103" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B103" s="41"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="23" t="s">
         <v>37</v>
       </c>
@@ -34300,7 +34568,7 @@
       <c r="IS103" s="25"/>
     </row>
     <row r="104" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B104" s="41">
+      <c r="B104" s="42">
         <v>5</v>
       </c>
       <c r="C104" s="23" t="s">
@@ -34716,7 +34984,7 @@
       <c r="IS104" s="17"/>
     </row>
     <row r="105" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="23" t="s">
         <v>37</v>
       </c>
@@ -35130,7 +35398,7 @@
       <c r="IS105" s="25"/>
     </row>
     <row r="106" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B106" s="41">
+      <c r="B106" s="42">
         <v>6</v>
       </c>
       <c r="C106" s="23" t="s">
@@ -35514,7 +35782,7 @@
       <c r="IS106" s="17"/>
     </row>
     <row r="107" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="23" t="s">
         <v>37</v>
       </c>
@@ -35896,7 +36164,7 @@
       <c r="IS107" s="25"/>
     </row>
     <row r="108" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B108" s="41">
+      <c r="B108" s="42">
         <v>7</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -36296,7 +36564,7 @@
       <c r="IS108" s="17"/>
     </row>
     <row r="109" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B109" s="41"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="23" t="s">
         <v>37</v>
       </c>
@@ -36694,7 +36962,7 @@
       <c r="IS109" s="25"/>
     </row>
     <row r="110" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B110" s="41">
+      <c r="B110" s="42">
         <v>8</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -37086,7 +37354,7 @@
       <c r="IS110" s="17"/>
     </row>
     <row r="111" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B111" s="41"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="23" t="s">
         <v>37</v>
       </c>
@@ -37476,7 +37744,7 @@
       <c r="IS111" s="25"/>
     </row>
     <row r="112" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B112" s="41">
+      <c r="B112" s="42">
         <v>9</v>
       </c>
       <c r="C112" s="23" t="s">
@@ -37888,7 +38156,7 @@
       <c r="IS112" s="17"/>
     </row>
     <row r="113" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B113" s="41"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="23" t="s">
         <v>37</v>
       </c>
@@ -38298,7 +38566,7 @@
       <c r="IS113" s="25"/>
     </row>
     <row r="114" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B114" s="41">
+      <c r="B114" s="42">
         <v>10</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -38770,7 +39038,7 @@
       <c r="IS114" s="17"/>
     </row>
     <row r="115" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B115" s="41"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="23" t="s">
         <v>37</v>
       </c>
@@ -39240,7 +39508,7 @@
       <c r="IS115" s="25"/>
     </row>
     <row r="116" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B116" s="41">
+      <c r="B116" s="42">
         <v>11</v>
       </c>
       <c r="C116" s="23" t="s">
@@ -39764,7 +40032,7 @@
       <c r="IS116" s="17"/>
     </row>
     <row r="117" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B117" s="41"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="23" t="s">
         <v>37</v>
       </c>
@@ -40286,7 +40554,7 @@
       <c r="IS117" s="25"/>
     </row>
     <row r="118" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B118" s="41">
+      <c r="B118" s="42">
         <v>12</v>
       </c>
       <c r="C118" s="23" t="s">
@@ -40894,7 +41162,7 @@
       <c r="IS118" s="17"/>
     </row>
     <row r="119" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B119" s="41"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="23" t="s">
         <v>37</v>
       </c>
@@ -41500,7 +41768,7 @@
       <c r="IS119" s="25"/>
     </row>
     <row r="120" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B120" s="41">
+      <c r="B120" s="42">
         <v>13</v>
       </c>
       <c r="C120" s="23" t="s">
@@ -42160,7 +42428,7 @@
       <c r="IS120" s="17"/>
     </row>
     <row r="121" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B121" s="41"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="23" t="s">
         <v>37</v>
       </c>
@@ -42818,7 +43086,7 @@
       <c r="IS121" s="25"/>
     </row>
     <row r="122" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B122" s="41">
+      <c r="B122" s="42">
         <v>14</v>
       </c>
       <c r="C122" s="23" t="s">
@@ -43478,7 +43746,7 @@
       <c r="IS122" s="17"/>
     </row>
     <row r="123" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B123" s="41"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="23" t="s">
         <v>37</v>
       </c>
@@ -44136,7 +44404,7 @@
       <c r="IS123" s="25"/>
     </row>
     <row r="124" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B124" s="41">
+      <c r="B124" s="42">
         <v>15</v>
       </c>
       <c r="C124" s="23" t="s">
@@ -44394,7 +44662,7 @@
       <c r="IS124" s="17"/>
     </row>
     <row r="125" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B125" s="41"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="23" t="s">
         <v>37</v>
       </c>
@@ -44650,7 +44918,7 @@
       <c r="IS125" s="25"/>
     </row>
     <row r="126" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B126" s="41">
+      <c r="B126" s="42">
         <v>16</v>
       </c>
       <c r="C126" s="23" t="s">
@@ -44908,7 +45176,7 @@
       <c r="IS126" s="17"/>
     </row>
     <row r="127" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B127" s="41"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="23" t="s">
         <v>37</v>
       </c>
@@ -45164,7 +45432,7 @@
       <c r="IS127" s="25"/>
     </row>
     <row r="128" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B128" s="41">
+      <c r="B128" s="42">
         <v>17</v>
       </c>
       <c r="C128" s="23" t="s">
@@ -45422,7 +45690,7 @@
       <c r="IS128" s="17"/>
     </row>
     <row r="129" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B129" s="41"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="23" t="s">
         <v>37</v>
       </c>
@@ -45678,7 +45946,7 @@
       <c r="IS129" s="25"/>
     </row>
     <row r="130" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B130" s="41">
+      <c r="B130" s="42">
         <v>18</v>
       </c>
       <c r="C130" s="23" t="s">
@@ -45936,7 +46204,7 @@
       <c r="IS130" s="17"/>
     </row>
     <row r="131" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B131" s="41"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="23" t="s">
         <v>37</v>
       </c>
@@ -46192,7 +46460,7 @@
       <c r="IS131" s="25"/>
     </row>
     <row r="132" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B132" s="41">
+      <c r="B132" s="42">
         <v>19</v>
       </c>
       <c r="C132" s="23" t="s">
@@ -46450,7 +46718,7 @@
       <c r="IS132" s="17"/>
     </row>
     <row r="133" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B133" s="41"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="23" t="s">
         <v>37</v>
       </c>
@@ -46706,7 +46974,7 @@
       <c r="IS133" s="25"/>
     </row>
     <row r="134" spans="2:253" x14ac:dyDescent="0.25">
-      <c r="B134" s="41">
+      <c r="B134" s="42">
         <v>20</v>
       </c>
       <c r="C134" s="23" t="s">
@@ -46964,7 +47232,7 @@
       <c r="IS134" s="17"/>
     </row>
     <row r="135" spans="2:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="42"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="26" t="s">
         <v>37</v>
       </c>
@@ -47221,14 +47489,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="B98:B99"/>
@@ -47241,6 +47501,14 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/source/LocVol Parameters.xlsx
+++ b/source/LocVol Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E11EF9F9-0C6F-4E9A-BBE9-DDE7AC3EEF36}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="114_{04ABCA49-5EF5-45EE-86F8-2A4F7629E716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19AD1AB0-58FB-4001-9C0E-2D52FF9BE909}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRSMFORM" sheetId="1" r:id="rId1"/>
@@ -24642,23 +24642,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="40">
         <v>1.0822999976901</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="40">
         <v>2.7397260273999999E-3</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="40">
         <v>5.4794520547999997E-3</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>0.1203924027461</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="40">
         <v>1.3698630137E-2</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>0.1119965744464</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="40">
         <v>1.9178082191799999E-2</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>0.1107107890606</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="40">
         <v>2.4657534246599999E-2</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>0.11952873647789999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>65</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>0.1173419741591</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="40">
         <v>4.3835616438399998E-2</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0.11274331937199999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="40">
         <v>6.3013698630100007E-2</v>
       </c>
@@ -25197,7 +25197,7 @@
         <v>0.112448036487</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="40">
         <v>7.9452054794500002E-2</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>0.11238719204600001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="40">
         <v>9.0410958904100003E-2</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>0.1121262326205</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="40">
         <v>9.5890410958899996E-2</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>0.1162458703394</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="40">
         <v>0.1369863013699</v>
       </c>
@@ -25421,7 +25421,7 @@
         <v>0.1207172875696</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="40">
         <v>0.1397260273973</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>0.1247241553668</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="40">
         <v>0.158904109589</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>0.13325857752119999</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="40">
         <v>0.16986301369859999</v>
       </c>
@@ -25565,7 +25565,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="40">
         <v>0.21643835616439999</v>
       </c>
@@ -25597,7 +25597,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="40">
         <v>0.24657534246580001</v>
       </c>
@@ -25629,7 +25629,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="40">
         <v>0.2520547945205</v>
       </c>
@@ -25661,7 +25661,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="40">
         <v>0.33972602739730001</v>
       </c>
@@ -25693,7 +25693,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="40">
         <v>0.34520547945210001</v>
       </c>
@@ -25725,7 +25725,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="40">
         <v>0.35068493150680002</v>
       </c>
@@ -25757,7 +25757,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="40">
         <v>0.38630136986300001</v>
       </c>
@@ -25789,7 +25789,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="40">
         <v>0.38904109589039998</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>-4.4697237919999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="40">
         <v>0.41917808219180003</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>8.4563110899999995E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="40">
         <v>0.46575342465750003</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>-1.8521255959999999E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="40">
         <v>0.49863013698629999</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="40">
         <v>0.50410958904110004</v>
       </c>
@@ -25907,7 +25907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="40">
         <v>0.61369863013699999</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>1.0928611436024001</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="40">
         <v>0.61917808219180004</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>1.1060402313711</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="40">
         <v>0.63835616438359999</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>1.1138330420706</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="40">
         <v>0.64657534246579995</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>1.127924371722</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="40">
         <v>0.73424657534250004</v>
       </c>
@@ -26082,7 +26082,7 @@
         <v>1.1538059215845</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="40">
         <v>0.75068493150680005</v>
       </c>
@@ -26117,7 +26117,7 @@
         <v>1.1714163164200999</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="40">
         <v>0.76164383561640003</v>
       </c>
@@ -26152,7 +26152,7 @@
         <v>1.2097180230955</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="40">
         <v>0.84931506849320004</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>1.2441955366813</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" s="40">
         <v>0.86301369863010002</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>1.2755193361949999</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="40">
         <v>0.88767123287670002</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>1.3753185664284</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" s="40">
         <v>0.89589041095889999</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>1.4851170685057</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" s="40">
         <v>1</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>1.6968820364574999</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="40">
         <v>1.0109589041096001</v>
       </c>
@@ -26362,7 +26362,7 @@
         <v>1.9150657702731</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" s="40">
         <v>1.0164383561643999</v>
       </c>
@@ -26397,7 +26397,7 @@
         <v>2.3036276843243999</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" s="40">
         <v>1.2630136986300999</v>
       </c>
@@ -26422,7 +26422,7 @@
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" s="40">
         <v>1.5150684931506999</v>
       </c>
@@ -26447,7 +26447,7 @@
       <c r="Q48" s="40"/>
       <c r="R48" s="40"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="40">
         <v>1.7643835616437999</v>
       </c>
@@ -26472,7 +26472,7 @@
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="40">
         <v>1.9972602739726</v>
       </c>
@@ -26497,7 +26497,7 @@
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="40">
         <v>2.0082191780822001</v>
       </c>
@@ -26522,7 +26522,7 @@
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="40">
         <v>2.0136986301370001</v>
       </c>
@@ -26547,7 +26547,7 @@
       <c r="Q52" s="40"/>
       <c r="R52" s="40"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="40">
         <v>2.9972602739726</v>
       </c>
@@ -26572,7 +26572,7 @@
       <c r="Q53" s="40"/>
       <c r="R53" s="40"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" s="40">
         <v>3.0082191780822001</v>
       </c>
@@ -26597,7 +26597,7 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="40"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" s="40">
         <v>3.0136986301370001</v>
       </c>
@@ -26617,7 +26617,7 @@
         <v>-3.3861605999999998E-5</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" s="40">
         <v>4.0082191780822001</v>
       </c>
@@ -26637,7 +26637,7 @@
         <v>3.4760200000000002E-7</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" s="40">
         <v>4.0136986301370001</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>-1.9807499500000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" s="40">
         <v>5.0054794520548</v>
       </c>
@@ -26677,7 +26677,7 @@
         <v>1.2203675000000001E-6</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" s="40">
         <v>5.0109589041096001</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>-1.3999513099999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" s="40">
         <v>5.0246575342466002</v>
       </c>
@@ -26717,7 +26717,7 @@
         <v>1.2243287E-6</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" s="40">
         <v>6.0219178082192002</v>
       </c>
@@ -26737,7 +26737,7 @@
         <v>1.7979840999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="40">
         <v>7.0027397260274</v>
       </c>
@@ -26757,7 +26757,7 @@
         <v>-6.9743163999999996E-6</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" s="40">
         <v>7.0136986301370001</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>2.3987668000000001E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" s="40">
         <v>7.0191780821918002</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>2.4007969000000001E-6</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="40">
         <v>8.0164383561644001</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>2.6608752E-6</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="40">
         <v>9.0191780821918002</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>-3.8421239999999998E-6</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="40">
         <v>10.0082191780822</v>
       </c>
@@ -26857,7 +26857,7 @@
         <v>2.4127046E-6</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="40">
         <v>10.013698630137</v>
       </c>
@@ -26877,7 +26877,7 @@
         <v>-6.3167837999999999E-6</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="40">
         <v>10.027397260274</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>2.4069873000000001E-6</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="40">
         <v>12.0246575342466</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>1.8319129E-6</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="40">
         <v>15.0164383561644</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>1.2807922999999999E-6</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="40">
         <v>15.0219178082192</v>
       </c>
@@ -26957,7 +26957,7 @@
         <v>-2.9263192E-6</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="40">
         <v>20.0191780821918</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>7.5349260000000001E-7</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="40">
         <v>20.0246575342466</v>
       </c>
@@ -26997,7 +26997,7 @@
         <v>-2.6090055E-6</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="40">
         <v>25.0301369863014</v>
       </c>
@@ -27017,7 +27017,7 @@
         <v>-2.1142105999999999E-6</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="40">
         <v>30.027397260274</v>
       </c>
@@ -27037,7 +27037,7 @@
         <v>6.5530229999999998E-7</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="40">
         <v>30.0328767123288</v>
       </c>
@@ -27057,7 +27057,7 @@
         <v>6.5531090000000004E-7</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="40">
         <v>40.0438356164384</v>
       </c>
@@ -27077,7 +27077,7 @@
         <v>6.940074E-7</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="40">
         <v>50.0520547945206</v>
       </c>
@@ -27109,13 +27109,13 @@
   </sheetPr>
   <dimension ref="A2:IS135"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -27126,7 +27126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -27149,19 +27149,19 @@
         <v>24</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>25</v>
@@ -27170,25 +27170,25 @@
         <v>24</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>2.1197609155300001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -27304,7 +27304,7 @@
         <v>4.7359231272900003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -27362,7 +27362,7 @@
         <v>6.1988012100200003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>8.7548733770299994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>5</v>
       </c>
@@ -27478,7 +27478,7 @@
         <v>0.1346704984181</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>0.16598198913910001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>0.23051748352160001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>8</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>0.28339410176570001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>9</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>0.3270493661653</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>10</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>0.4607933753981</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>0.57484851881709997</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
         <v>12</v>
       </c>
@@ -27884,7 +27884,7 @@
         <v>0.76370305811030004</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
         <v>13</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>0.92761506616169997</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>14</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>1.2260690482028</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -28022,7 +28022,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="13"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -28044,7 +28044,7 @@
       <c r="V19" s="16"/>
       <c r="W19" s="13"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -28066,7 +28066,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="13"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -28088,7 +28088,7 @@
       <c r="V21" s="16"/>
       <c r="W21" s="13"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -28110,7 +28110,7 @@
       <c r="V22" s="16"/>
       <c r="W22" s="13"/>
     </row>
-    <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="22"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
@@ -28132,7 +28132,7 @@
       <c r="V23" s="19"/>
       <c r="W23" s="14"/>
     </row>
-    <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" t="s">
         <v>28</v>
       </c>
@@ -28143,24 +28143,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>25</v>
@@ -28169,19 +28169,19 @@
         <v>24</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="W26" s="9" t="s">
         <v>25</v>
@@ -28189,26 +28189,26 @@
       <c r="Y26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB26" s="8" t="s">
+      <c r="Z26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD26" s="8" t="s">
-        <v>23</v>
+      <c r="AC26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AE26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I27" s="11">
         <v>0.1513067939095</v>
       </c>
@@ -28255,7 +28255,7 @@
       </c>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I28" s="11">
         <v>0.1339038971415</v>
       </c>
@@ -28302,7 +28302,7 @@
       </c>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I29" s="11">
         <v>0.13441259247260001</v>
       </c>
@@ -28349,7 +28349,7 @@
       </c>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I30" s="11">
         <v>0.15101787841370001</v>
       </c>
@@ -28396,7 +28396,7 @@
       </c>
       <c r="AE30" s="13"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I31" s="11">
         <v>0.17950923153330001</v>
       </c>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I32" s="11">
         <v>0.18356328803950001</v>
       </c>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I33" s="11">
         <v>0.1923327598948</v>
       </c>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="AE33" s="13"/>
     </row>
-    <row r="34" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I34" s="11">
         <v>0.19837434487710001</v>
       </c>
@@ -28584,7 +28584,7 @@
       </c>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I35" s="11">
         <v>0.20333851351609999</v>
       </c>
@@ -28631,7 +28631,7 @@
       </c>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I36" s="11">
         <v>0.19996168653730001</v>
       </c>
@@ -28678,7 +28678,7 @@
       </c>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I37" s="11">
         <v>0.19859574348860001</v>
       </c>
@@ -28725,7 +28725,7 @@
       </c>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I38" s="11">
         <v>0.2012597693497</v>
       </c>
@@ -28772,7 +28772,7 @@
       </c>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I39" s="11">
         <v>0.20491294632000001</v>
       </c>
@@ -28819,7 +28819,7 @@
       </c>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I40" s="11">
         <v>0.22833024626199999</v>
       </c>
@@ -28866,7 +28866,7 @@
       </c>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I41" s="11"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -28889,7 +28889,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I42" s="11"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -28912,7 +28912,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I43" s="11"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -28935,7 +28935,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I44" s="11"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -28958,7 +28958,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I45" s="11"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -28981,7 +28981,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I46" s="12"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -29004,7 +29004,7 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="14"/>
     </row>
-    <row r="48" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" t="s">
         <v>30</v>
       </c>
@@ -29015,24 +29015,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O49" s="9" t="s">
         <v>25</v>
@@ -29041,19 +29041,19 @@
         <v>24</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="W49" s="9" t="s">
         <v>25</v>
@@ -29062,25 +29062,25 @@
         <v>24</v>
       </c>
       <c r="Z49" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA49" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AB49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AD49" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AE49" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I50" s="11">
         <v>0.15530318959760001</v>
       </c>
@@ -29127,7 +29127,7 @@
       </c>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I51" s="11">
         <v>0.13131983501710001</v>
       </c>
@@ -29174,7 +29174,7 @@
       </c>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I52" s="11">
         <v>0.124343669004</v>
       </c>
@@ -29221,7 +29221,7 @@
       </c>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I53" s="11">
         <v>0.1502032016347</v>
       </c>
@@ -29268,7 +29268,7 @@
       </c>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I54" s="11">
         <v>0.19070085713339999</v>
       </c>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I55" s="11">
         <v>0.17268768355149999</v>
       </c>
@@ -29362,7 +29362,7 @@
       </c>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I56" s="11">
         <v>0.18236044372499999</v>
       </c>
@@ -29409,7 +29409,7 @@
       </c>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I57" s="11">
         <v>0.18653411144240001</v>
       </c>
@@ -29456,7 +29456,7 @@
       </c>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I58" s="11">
         <v>0.18880853595829999</v>
       </c>
@@ -29503,7 +29503,7 @@
       </c>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I59" s="11">
         <v>0.1833484587576</v>
       </c>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I60" s="11">
         <v>0.17897518869849999</v>
       </c>
@@ -29597,7 +29597,7 @@
       </c>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I61" s="11">
         <v>0.1919364411691</v>
       </c>
@@ -29644,7 +29644,7 @@
       </c>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I62" s="11">
         <v>0.19765052317029999</v>
       </c>
@@ -29691,7 +29691,7 @@
       </c>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I63" s="11">
         <v>0.26234910615250001</v>
       </c>
@@ -29738,7 +29738,7 @@
       </c>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I64" s="11"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -29761,7 +29761,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I65" s="11"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -29784,7 +29784,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I66" s="11"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -29807,7 +29807,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I67" s="11"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -29830,7 +29830,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I68" s="11"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -29853,7 +29853,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I69" s="12"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -29876,7 +29876,7 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="14"/>
     </row>
-    <row r="71" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I71" t="s">
         <v>33</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I72" s="7" t="s">
         <v>24</v>
       </c>
@@ -29952,7 +29952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I73" s="11"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -29975,7 +29975,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="13"/>
     </row>
-    <row r="74" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I74" s="11"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -29998,7 +29998,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I75" s="11"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -30021,7 +30021,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="13"/>
     </row>
-    <row r="76" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I76" s="11"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -30044,7 +30044,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I77" s="11"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -30067,7 +30067,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="13"/>
     </row>
-    <row r="78" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I78" s="11"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -30090,7 +30090,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="13"/>
     </row>
-    <row r="79" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I79" s="11"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -30113,7 +30113,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I80" s="11"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -30136,7 +30136,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="13"/>
     </row>
-    <row r="81" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I81" s="11"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -30159,7 +30159,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="13"/>
     </row>
-    <row r="82" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I82" s="11"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -30182,7 +30182,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="13"/>
     </row>
-    <row r="83" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I83" s="11"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -30205,7 +30205,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="13"/>
     </row>
-    <row r="84" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I84" s="11"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -30228,7 +30228,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="13"/>
     </row>
-    <row r="85" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I85" s="11"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -30251,7 +30251,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="13"/>
     </row>
-    <row r="86" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I86" s="11"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -30274,7 +30274,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I87" s="11"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -30297,7 +30297,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -30320,7 +30320,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I89" s="11"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -30343,7 +30343,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I90" s="11"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -30366,7 +30366,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I91" s="11"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -30389,7 +30389,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="1:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:253" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I92" s="12"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -30412,12 +30412,12 @@
       <c r="AD92" s="5"/>
       <c r="AE92" s="14"/>
     </row>
-    <row r="94" spans="1:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:253" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:253" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>2</v>
       </c>
@@ -31175,7 +31175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:253" x14ac:dyDescent="0.3">
       <c r="B96" s="42">
         <v>1</v>
       </c>
@@ -31627,7 +31627,7 @@
       <c r="IR96" s="16"/>
       <c r="IS96" s="17"/>
     </row>
-    <row r="97" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B97" s="42"/>
       <c r="C97" s="23" t="s">
         <v>37</v>
@@ -32077,7 +32077,7 @@
       <c r="IR97" s="24"/>
       <c r="IS97" s="25"/>
     </row>
-    <row r="98" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B98" s="42">
         <v>2</v>
       </c>
@@ -32529,7 +32529,7 @@
       <c r="IR98" s="16"/>
       <c r="IS98" s="17"/>
     </row>
-    <row r="99" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B99" s="42"/>
       <c r="C99" s="23" t="s">
         <v>37</v>
@@ -32979,7 +32979,7 @@
       <c r="IR99" s="24"/>
       <c r="IS99" s="25"/>
     </row>
-    <row r="100" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B100" s="42">
         <v>3</v>
       </c>
@@ -33371,7 +33371,7 @@
       <c r="IR100" s="16"/>
       <c r="IS100" s="17"/>
     </row>
-    <row r="101" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B101" s="42"/>
       <c r="C101" s="23" t="s">
         <v>37</v>
@@ -33761,7 +33761,7 @@
       <c r="IR101" s="24"/>
       <c r="IS101" s="25"/>
     </row>
-    <row r="102" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B102" s="42">
         <v>4</v>
       </c>
@@ -34165,7 +34165,7 @@
       <c r="IR102" s="16"/>
       <c r="IS102" s="17"/>
     </row>
-    <row r="103" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B103" s="42"/>
       <c r="C103" s="23" t="s">
         <v>37</v>
@@ -34567,7 +34567,7 @@
       <c r="IR103" s="24"/>
       <c r="IS103" s="25"/>
     </row>
-    <row r="104" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B104" s="42">
         <v>5</v>
       </c>
@@ -34983,7 +34983,7 @@
       <c r="IR104" s="16"/>
       <c r="IS104" s="17"/>
     </row>
-    <row r="105" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B105" s="42"/>
       <c r="C105" s="23" t="s">
         <v>37</v>
@@ -35397,7 +35397,7 @@
       <c r="IR105" s="24"/>
       <c r="IS105" s="25"/>
     </row>
-    <row r="106" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B106" s="42">
         <v>6</v>
       </c>
@@ -35781,7 +35781,7 @@
       <c r="IR106" s="16"/>
       <c r="IS106" s="17"/>
     </row>
-    <row r="107" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B107" s="42"/>
       <c r="C107" s="23" t="s">
         <v>37</v>
@@ -36163,7 +36163,7 @@
       <c r="IR107" s="24"/>
       <c r="IS107" s="25"/>
     </row>
-    <row r="108" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B108" s="42">
         <v>7</v>
       </c>
@@ -36563,7 +36563,7 @@
       <c r="IR108" s="16"/>
       <c r="IS108" s="17"/>
     </row>
-    <row r="109" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B109" s="42"/>
       <c r="C109" s="23" t="s">
         <v>37</v>
@@ -36961,7 +36961,7 @@
       <c r="IR109" s="24"/>
       <c r="IS109" s="25"/>
     </row>
-    <row r="110" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B110" s="42">
         <v>8</v>
       </c>
@@ -37353,7 +37353,7 @@
       <c r="IR110" s="16"/>
       <c r="IS110" s="17"/>
     </row>
-    <row r="111" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B111" s="42"/>
       <c r="C111" s="23" t="s">
         <v>37</v>
@@ -37743,7 +37743,7 @@
       <c r="IR111" s="24"/>
       <c r="IS111" s="25"/>
     </row>
-    <row r="112" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B112" s="42">
         <v>9</v>
       </c>
@@ -38155,7 +38155,7 @@
       <c r="IR112" s="16"/>
       <c r="IS112" s="17"/>
     </row>
-    <row r="113" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B113" s="42"/>
       <c r="C113" s="23" t="s">
         <v>37</v>
@@ -38565,7 +38565,7 @@
       <c r="IR113" s="24"/>
       <c r="IS113" s="25"/>
     </row>
-    <row r="114" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B114" s="42">
         <v>10</v>
       </c>
@@ -39037,7 +39037,7 @@
       <c r="IR114" s="16"/>
       <c r="IS114" s="17"/>
     </row>
-    <row r="115" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B115" s="42"/>
       <c r="C115" s="23" t="s">
         <v>37</v>
@@ -39507,7 +39507,7 @@
       <c r="IR115" s="24"/>
       <c r="IS115" s="25"/>
     </row>
-    <row r="116" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B116" s="42">
         <v>11</v>
       </c>
@@ -40031,7 +40031,7 @@
       <c r="IR116" s="16"/>
       <c r="IS116" s="17"/>
     </row>
-    <row r="117" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B117" s="42"/>
       <c r="C117" s="23" t="s">
         <v>37</v>
@@ -40553,7 +40553,7 @@
       <c r="IR117" s="24"/>
       <c r="IS117" s="25"/>
     </row>
-    <row r="118" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B118" s="42">
         <v>12</v>
       </c>
@@ -41161,7 +41161,7 @@
       <c r="IR118" s="16"/>
       <c r="IS118" s="17"/>
     </row>
-    <row r="119" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B119" s="42"/>
       <c r="C119" s="23" t="s">
         <v>37</v>
@@ -41767,7 +41767,7 @@
       <c r="IR119" s="24"/>
       <c r="IS119" s="25"/>
     </row>
-    <row r="120" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B120" s="42">
         <v>13</v>
       </c>
@@ -42427,7 +42427,7 @@
       <c r="IR120" s="16"/>
       <c r="IS120" s="17"/>
     </row>
-    <row r="121" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B121" s="42"/>
       <c r="C121" s="23" t="s">
         <v>37</v>
@@ -43085,7 +43085,7 @@
       <c r="IR121" s="24"/>
       <c r="IS121" s="25"/>
     </row>
-    <row r="122" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B122" s="42">
         <v>14</v>
       </c>
@@ -43745,7 +43745,7 @@
       <c r="IR122" s="16"/>
       <c r="IS122" s="17"/>
     </row>
-    <row r="123" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B123" s="42"/>
       <c r="C123" s="23" t="s">
         <v>37</v>
@@ -44403,7 +44403,7 @@
       <c r="IR123" s="24"/>
       <c r="IS123" s="25"/>
     </row>
-    <row r="124" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B124" s="42">
         <v>15</v>
       </c>
@@ -44661,7 +44661,7 @@
       <c r="IR124" s="16"/>
       <c r="IS124" s="17"/>
     </row>
-    <row r="125" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B125" s="42"/>
       <c r="C125" s="23" t="s">
         <v>37</v>
@@ -44917,7 +44917,7 @@
       <c r="IR125" s="24"/>
       <c r="IS125" s="25"/>
     </row>
-    <row r="126" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B126" s="42">
         <v>16</v>
       </c>
@@ -45175,7 +45175,7 @@
       <c r="IR126" s="16"/>
       <c r="IS126" s="17"/>
     </row>
-    <row r="127" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B127" s="42"/>
       <c r="C127" s="23" t="s">
         <v>37</v>
@@ -45431,7 +45431,7 @@
       <c r="IR127" s="24"/>
       <c r="IS127" s="25"/>
     </row>
-    <row r="128" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B128" s="42">
         <v>17</v>
       </c>
@@ -45689,7 +45689,7 @@
       <c r="IR128" s="16"/>
       <c r="IS128" s="17"/>
     </row>
-    <row r="129" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B129" s="42"/>
       <c r="C129" s="23" t="s">
         <v>37</v>
@@ -45945,7 +45945,7 @@
       <c r="IR129" s="24"/>
       <c r="IS129" s="25"/>
     </row>
-    <row r="130" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B130" s="42">
         <v>18</v>
       </c>
@@ -46203,7 +46203,7 @@
       <c r="IR130" s="16"/>
       <c r="IS130" s="17"/>
     </row>
-    <row r="131" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B131" s="42"/>
       <c r="C131" s="23" t="s">
         <v>37</v>
@@ -46459,7 +46459,7 @@
       <c r="IR131" s="24"/>
       <c r="IS131" s="25"/>
     </row>
-    <row r="132" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B132" s="42">
         <v>19</v>
       </c>
@@ -46717,7 +46717,7 @@
       <c r="IR132" s="16"/>
       <c r="IS132" s="17"/>
     </row>
-    <row r="133" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B133" s="42"/>
       <c r="C133" s="23" t="s">
         <v>37</v>
@@ -46973,7 +46973,7 @@
       <c r="IR133" s="24"/>
       <c r="IS133" s="25"/>
     </row>
-    <row r="134" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B134" s="42">
         <v>20</v>
       </c>
@@ -47231,7 +47231,7 @@
       <c r="IR134" s="16"/>
       <c r="IS134" s="17"/>
     </row>
-    <row r="135" spans="2:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:253" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="43"/>
       <c r="C135" s="26" t="s">
         <v>37</v>
@@ -47489,14 +47489,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="B98:B99"/>
@@ -47509,6 +47501,14 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47521,30 +47521,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E084E794-C701-47B0-AF1A-32DC60A7FA4D}">
   <dimension ref="A2:BC204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX48" sqref="AX48"/>
+      <selection pane="bottomLeft" activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="20" width="12.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="20" width="12.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="O2" t="s">
         <v>53</v>
       </c>
@@ -47552,7 +47552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -47623,7 +47623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -47669,7 +47669,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -47722,7 +47722,7 @@
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -47787,7 +47787,7 @@
       <c r="Y6" s="39"/>
       <c r="Z6" s="39"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -47865,7 +47865,7 @@
         <v>1.4696445056834623E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D8" s="33">
         <v>4</v>
       </c>
@@ -47936,7 +47936,7 @@
         <v>1.9976965910750407E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D9" s="33">
         <v>5</v>
       </c>
@@ -48007,7 +48007,7 @@
         <v>2.542735284947003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D10" s="33">
         <v>6</v>
       </c>
@@ -48078,7 +48078,7 @@
         <v>3.1116210712349747E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="33">
         <v>7</v>
       </c>
@@ -48149,7 +48149,7 @@
         <v>3.711195961656481E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="33">
         <v>8</v>
       </c>
@@ -48220,7 +48220,7 @@
         <v>4.3483181736853468E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D13" s="33">
         <v>9</v>
       </c>
@@ -48291,7 +48291,7 @@
         <v>5.0298905900373198E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="33">
         <v>10</v>
       </c>
@@ -48362,7 +48362,7 @@
         <v>5.7628822056134121E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D15" s="33">
         <v>11</v>
       </c>
@@ -48433,7 +48433,7 @@
         <v>6.554341744573762E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="33">
         <v>12</v>
       </c>
@@ -48504,7 +48504,7 @@
         <v>7.4114029010060554E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D17" s="33">
         <v>13</v>
       </c>
@@ -48575,7 +48575,7 @@
         <v>8.3412802761263314E-3</v>
       </c>
     </row>
-    <row r="18" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D18" s="33">
         <v>14</v>
       </c>
@@ -48646,7 +48646,7 @@
         <v>9.3512551047567668E-3</v>
       </c>
     </row>
-    <row r="19" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D19" s="33">
         <v>15</v>
       </c>
@@ -48717,7 +48717,7 @@
         <v>1.0448649863131355E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D20" s="33">
         <v>16</v>
       </c>
@@ -48791,7 +48791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D21" s="33">
         <v>17</v>
       </c>
@@ -48862,7 +48862,7 @@
         <v>1.293495772193686E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D22" s="33">
         <v>18</v>
       </c>
@@ -48933,7 +48933,7 @@
         <v>1.4338318670229399E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D23" s="33">
         <v>19</v>
       </c>
@@ -49004,7 +49004,7 @@
         <v>1.5857851190645977E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D24" s="33">
         <v>20</v>
       </c>
@@ -49075,7 +49075,7 @@
         <v>1.7500246641769943E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D25" s="33">
         <v>21</v>
       </c>
@@ -49146,7 +49146,7 @@
         <v>1.9271798487981252E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D26" s="33">
         <v>22</v>
       </c>
@@ -49217,7 +49217,7 @@
         <v>2.1178273393553056E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D27" s="33">
         <v>23</v>
       </c>
@@ -49288,7 +49288,7 @@
         <v>2.3224764875075844E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D28" s="33">
         <v>24</v>
       </c>
@@ -49359,7 +49359,7 @@
         <v>2.5415529536678118E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D29" s="33">
         <v>25</v>
       </c>
@@ -49430,7 +49430,7 @@
         <v>2.7753806022561604E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D30" s="33">
         <v>26</v>
       </c>
@@ -49501,7 +49501,7 @@
         <v>3.0241617300465078E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D31" s="33">
         <v>27</v>
       </c>
@@ -49572,7 +49572,7 @@
         <v>3.2879557348218923E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D32" s="33">
         <v>28</v>
       </c>
@@ -49643,7 +49643,7 @@
         <v>3.5666563853380337E-2</v>
       </c>
     </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D33" s="33">
         <v>29</v>
       </c>
@@ -49714,7 +49714,7 @@
         <v>3.8599678945126878E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D34" s="33">
         <v>30</v>
       </c>
@@ -49785,7 +49785,7 @@
         <v>4.167380070429158E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D35" s="33">
         <v>31</v>
       </c>
@@ -49856,7 +49856,7 @@
         <v>4.4881428749308963E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D36" s="33">
         <v>32</v>
       </c>
@@ -49927,7 +49927,7 @@
         <v>4.8212407922596012E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D37" s="33">
         <v>33</v>
       </c>
@@ -49998,7 +49998,7 @@
         <v>5.1653674902173818E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D38" s="33">
         <v>34</v>
       </c>
@@ -50069,7 +50069,7 @@
         <v>5.5189013043338335E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D39" s="33">
         <v>35</v>
       </c>
@@ -50140,7 +50140,7 @@
         <v>5.8798821519948766E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D40" s="33">
         <v>36</v>
       </c>
@@ -50211,7 +50211,7 @@
         <v>6.2459905669296871E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D41" s="33">
         <v>37</v>
       </c>
@@ -50282,7 +50282,7 @@
         <v>6.6145295908861201E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D42" s="33">
         <v>38</v>
       </c>
@@ -50353,7 +50353,7 @@
         <v>6.9824102999254456E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D43" s="33">
         <v>39</v>
       </c>
@@ -50424,7 +50424,7 @@
         <v>7.346141807422861E-2</v>
       </c>
     </row>
-    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D44" s="33">
         <v>40</v>
       </c>
@@ -50495,7 +50495,7 @@
         <v>7.7018266027364765E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D45" s="33">
         <v>41</v>
       </c>
@@ -50566,7 +50566,7 @@
         <v>8.0451620894576178E-2</v>
       </c>
     </row>
-    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D46" s="33">
         <v>42</v>
       </c>
@@ -50637,7 +50637,7 @@
         <v>8.3714491906057689E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D47" s="33">
         <v>43</v>
       </c>
@@ -50708,7 +50708,7 @@
         <v>8.6756088484626057E-2</v>
       </c>
     </row>
-    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D48" s="33">
         <v>44</v>
       </c>
@@ -50779,7 +50779,7 @@
         <v>8.9522072020061849E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D49" s="33">
         <v>45</v>
       </c>
@@ -50850,7 +50850,7 @@
         <v>9.1954901275603962E-2</v>
       </c>
     </row>
-    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D50" s="33">
         <v>46</v>
       </c>
@@ -50921,7 +50921,7 @@
         <v>9.3994277274672688E-2</v>
       </c>
     </row>
-    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D51" s="33">
         <v>47</v>
       </c>
@@ -50992,7 +50992,7 @@
         <v>9.5577692130170838E-2</v>
       </c>
     </row>
-    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D52" s="33">
         <v>48</v>
       </c>
@@ -51063,7 +51063,7 @@
         <v>9.6641084480796252E-2</v>
       </c>
     </row>
-    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D53" s="33">
         <v>49</v>
       </c>
@@ -51134,7 +51134,7 @@
         <v>9.7119602355275919E-2</v>
       </c>
     </row>
-    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D54" s="33">
         <v>50</v>
       </c>
@@ -51205,7 +51205,7 @@
         <v>9.6948471756748589E-2</v>
       </c>
     </row>
-    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D55" s="33">
         <v>51</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v>9.6063966956389302E-2</v>
       </c>
     </row>
-    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D56" s="33">
         <v>52</v>
       </c>
@@ -51347,7 +51347,7 @@
         <v>9.4404475604653149E-2</v>
       </c>
     </row>
-    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D57" s="33">
         <v>53</v>
       </c>
@@ -51418,7 +51418,7 @@
         <v>9.1911648769456122E-2</v>
       </c>
     </row>
-    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D58" s="33">
         <v>54</v>
       </c>
@@ -51489,7 +51489,7 @@
         <v>8.8531623135982507E-2</v>
       </c>
     </row>
-    <row r="59" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D59" s="33">
         <v>55</v>
       </c>
@@ -51560,7 +51560,7 @@
         <v>8.4216299261745675E-2</v>
       </c>
     </row>
-    <row r="60" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D60" s="33">
         <v>56</v>
       </c>
@@ -51631,7 +51631,7 @@
         <v>7.8924656782498381E-2</v>
       </c>
     </row>
-    <row r="61" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D61" s="33">
         <v>57</v>
       </c>
@@ -51702,7 +51702,7 @@
         <v>7.2624084498725039E-2</v>
       </c>
     </row>
-    <row r="62" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D62" s="33">
         <v>58</v>
       </c>
@@ -51773,7 +51773,7 @@
         <v>6.5291700479969239E-2</v>
       </c>
     </row>
-    <row r="63" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D63" s="33">
         <v>59</v>
       </c>
@@ -51844,7 +51844,7 @@
         <v>5.6915634804416082E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D64" s="33">
         <v>60</v>
       </c>
@@ -51915,7 +51915,7 @@
         <v>4.7496245464612841E-2</v>
       </c>
     </row>
-    <row r="65" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D65" s="33">
         <v>61</v>
       </c>
@@ -51986,7 +51986,7 @@
         <v>3.7047236431278718E-2</v>
       </c>
     </row>
-    <row r="66" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D66" s="33">
         <v>62</v>
       </c>
@@ -52057,7 +52057,7 @@
         <v>2.5596645907354998E-2</v>
       </c>
     </row>
-    <row r="67" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D67" s="33">
         <v>63</v>
       </c>
@@ -52128,7 +52128,7 @@
         <v>1.3187672465567513E-2</v>
       </c>
     </row>
-    <row r="68" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D68" s="33">
         <v>64</v>
       </c>
@@ -52199,7 +52199,7 @@
         <v>-1.2069279314919079E-4</v>
       </c>
     </row>
-    <row r="69" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D69" s="33">
         <v>65</v>
       </c>
@@ -52270,7 +52270,7 @@
         <v>-1.4253258501098154E-2</v>
       </c>
     </row>
-    <row r="70" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D70" s="33">
         <v>66</v>
       </c>
@@ -52341,7 +52341,7 @@
         <v>-2.9118478004441561E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D71" s="33">
         <v>67</v>
       </c>
@@ -52412,7 +52412,7 @@
         <v>-4.4608572341273023E-2</v>
       </c>
     </row>
-    <row r="72" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D72" s="33">
         <v>68</v>
       </c>
@@ -52483,7 +52483,7 @@
         <v>-6.0599952392976109E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D73" s="33">
         <v>69</v>
       </c>
@@ -52554,7 +52554,7 @@
         <v>-7.6953956487908481E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D74" s="33">
         <v>70</v>
       </c>
@@ -52625,7 +52625,7 @@
         <v>-9.3517914108276257E-2</v>
       </c>
     </row>
-    <row r="75" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D75" s="33">
         <v>71</v>
       </c>
@@ -52696,7 +52696,7 @@
         <v>-0.11012653981555953</v>
       </c>
     </row>
-    <row r="76" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D76" s="33">
         <v>72</v>
       </c>
@@ -52767,7 +52767,7 @@
         <v>-0.12660365438963161</v>
       </c>
     </row>
-    <row r="77" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D77" s="33">
         <v>73</v>
       </c>
@@ -52838,7 +52838,7 @@
         <v>-0.14276422259084742</v>
       </c>
     </row>
-    <row r="78" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D78" s="33">
         <v>74</v>
       </c>
@@ -52909,7 +52909,7 @@
         <v>-0.15841668897570593</v>
       </c>
     </row>
-    <row r="79" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D79" s="33">
         <v>75</v>
       </c>
@@ -52980,7 +52980,7 @@
         <v>-0.1733655851337188</v>
       </c>
     </row>
-    <row r="80" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D80" s="33">
         <v>76</v>
       </c>
@@ -53051,7 +53051,7 @@
         <v>-0.18741437361776003</v>
       </c>
     </row>
-    <row r="81" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D81" s="33">
         <v>77</v>
       </c>
@@ -53122,7 +53122,7 @@
         <v>-0.20036848608752833</v>
       </c>
     </row>
-    <row r="82" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D82" s="33">
         <v>78</v>
       </c>
@@ -53193,7 +53193,7 @@
         <v>-0.21203850596192186</v>
       </c>
     </row>
-    <row r="83" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D83" s="33">
         <v>79</v>
       </c>
@@ -53264,7 +53264,7 @@
         <v>-0.22224343929046464</v>
       </c>
     </row>
-    <row r="84" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D84" s="33">
         <v>80</v>
       </c>
@@ -53335,7 +53335,7 @@
         <v>-0.23081401205290675</v>
       </c>
     </row>
-    <row r="85" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D85" s="33">
         <v>81</v>
       </c>
@@ -53406,7 +53406,7 @@
         <v>-0.23759592774404448</v>
       </c>
     </row>
-    <row r="86" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D86" s="33">
         <v>82</v>
       </c>
@@ -53477,7 +53477,7 @@
         <v>-0.24245301604496872</v>
       </c>
     </row>
-    <row r="87" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D87" s="33">
         <v>83</v>
       </c>
@@ -53548,7 +53548,7 @@
         <v>-0.24527020201624428</v>
       </c>
     </row>
-    <row r="88" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D88" s="33">
         <v>84</v>
       </c>
@@ -53619,7 +53619,7 @@
         <v>-0.24595622545751983</v>
       </c>
     </row>
-    <row r="89" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D89" s="33">
         <v>85</v>
       </c>
@@ -53690,7 +53690,7 @@
         <v>-0.24444604208812581</v>
       </c>
     </row>
-    <row r="90" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D90" s="33">
         <v>86</v>
       </c>
@@ -53761,7 +53761,7 @@
         <v>-0.24070284208262649</v>
       </c>
     </row>
-    <row r="91" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D91" s="33">
         <v>87</v>
       </c>
@@ -53832,7 +53832,7 @@
         <v>-0.23471962709435301</v>
       </c>
     </row>
-    <row r="92" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D92" s="33">
         <v>88</v>
       </c>
@@ -53903,7 +53903,7 @@
         <v>-0.22652029438220422</v>
       </c>
     </row>
-    <row r="93" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D93" s="33">
         <v>89</v>
       </c>
@@ -53974,7 +53974,7 @@
         <v>-0.21616018569143014</v>
       </c>
     </row>
-    <row r="94" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D94" s="33">
         <v>90</v>
       </c>
@@ -54045,7 +54045,7 @@
         <v>-0.20372606907187762</v>
       </c>
     </row>
-    <row r="95" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D95" s="33">
         <v>91</v>
       </c>
@@ -54116,7 +54116,7 @@
         <v>-0.18933553371629586</v>
       </c>
     </row>
-    <row r="96" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D96" s="33">
         <v>92</v>
       </c>
@@ -54187,7 +54187,7 @@
         <v>-0.17313579066417839</v>
       </c>
     </row>
-    <row r="97" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D97" s="33">
         <v>93</v>
       </c>
@@ -54258,7 +54258,7 @@
         <v>-0.15530188574423587</v>
       </c>
     </row>
-    <row r="98" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D98" s="33">
         <v>94</v>
       </c>
@@ -54329,7 +54329,7 @@
         <v>-0.13603434506668499</v>
       </c>
     </row>
-    <row r="99" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D99" s="33">
         <v>95</v>
       </c>
@@ -54400,7 +54400,7 @@
         <v>-0.11555628717078603</v>
       </c>
     </row>
-    <row r="100" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D100" s="33">
         <v>96</v>
       </c>
@@ -54471,7 +54471,7 @@
         <v>-9.4110049451256561E-2</v>
       </c>
     </row>
-    <row r="101" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D101" s="33">
         <v>97</v>
       </c>
@@ -54542,7 +54542,7 @@
         <v>-7.1953389193140982E-2</v>
       </c>
     </row>
-    <row r="102" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D102" s="33">
         <v>98</v>
       </c>
@@ -54613,7 +54613,7 @@
         <v>-4.935533104713441E-2</v>
       </c>
     </row>
-    <row r="103" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D103" s="33">
         <v>99</v>
       </c>
@@ -54684,7 +54684,7 @@
         <v>-2.6591742844074062E-2</v>
       </c>
     </row>
-    <row r="104" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D104" s="33">
         <v>100</v>
       </c>
@@ -54755,7 +54755,7 @@
         <v>-3.9407298153633086E-3</v>
       </c>
     </row>
-    <row r="105" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D105" s="33">
         <v>101</v>
       </c>
@@ -54826,7 +54826,7 @@
         <v>1.832205663584574E-2</v>
       </c>
     </row>
-    <row r="106" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D106" s="33">
         <v>102</v>
       </c>
@@ -54897,7 +54897,7 @@
         <v>3.9928095731275537E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D107" s="33">
         <v>103</v>
       </c>
@@ -54968,7 +54968,7 @@
         <v>6.0620558613413422E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D108" s="33">
         <v>104</v>
       </c>
@@ -55039,7 +55039,7 @@
         <v>8.0158654425272591E-2</v>
       </c>
     </row>
-    <row r="109" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D109" s="33">
         <v>105</v>
       </c>
@@ -55110,7 +55110,7 @@
         <v>9.8321665471949871E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D110" s="33">
         <v>106</v>
       </c>
@@ -55181,7 +55181,7 @@
         <v>0.11491258235415502</v>
       </c>
     </row>
-    <row r="111" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D111" s="33">
         <v>107</v>
       </c>
@@ -55252,7 +55252,7 @@
         <v>0.12976125891421564</v>
       </c>
     </row>
-    <row r="112" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D112" s="33">
         <v>108</v>
       </c>
@@ -55323,7 +55323,7 @@
         <v>0.14272701804698551</v>
       </c>
     </row>
-    <row r="113" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D113" s="33">
         <v>109</v>
       </c>
@@ -55394,7 +55394,7 @@
         <v>0.15370065253000531</v>
       </c>
     </row>
-    <row r="114" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D114" s="33">
         <v>110</v>
       </c>
@@ -55465,7 +55465,7 @@
         <v>0.16260577969694934</v>
       </c>
     </row>
-    <row r="115" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D115" s="33">
         <v>111</v>
       </c>
@@ -55536,7 +55536,7 @@
         <v>0.16939952462735786</v>
       </c>
     </row>
-    <row r="116" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D116" s="33">
         <v>112</v>
       </c>
@@ -55607,7 +55607,7 @@
         <v>0.17407252306152277</v>
       </c>
     </row>
-    <row r="117" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D117" s="33">
         <v>113</v>
       </c>
@@ -55678,7 +55678,7 @@
         <v>0.1766482520638577</v>
       </c>
     </row>
-    <row r="118" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D118" s="33">
         <v>114</v>
       </c>
@@ -55749,7 +55749,7 @@
         <v>0.17718171300610508</v>
       </c>
     </row>
-    <row r="119" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D119" s="33">
         <v>115</v>
       </c>
@@ -55820,7 +55820,7 @@
         <v>0.17575750726636374</v>
       </c>
     </row>
-    <row r="120" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D120" s="33">
         <v>116</v>
       </c>
@@ -55891,7 +55891,7 @@
         <v>0.1724873596861709</v>
       </c>
     </row>
-    <row r="121" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D121" s="33">
         <v>117</v>
       </c>
@@ -55962,7 +55962,7 @@
         <v>0.1675071578478049</v>
       </c>
     </row>
-    <row r="122" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D122" s="33">
         <v>118</v>
       </c>
@@ -56033,7 +56033,7 @@
         <v>0.16097358626457114</v>
       </c>
     </row>
-    <row r="123" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D123" s="33">
         <v>119</v>
       </c>
@@ -56104,7 +56104,7 @@
         <v>0.15306044328070567</v>
       </c>
     </row>
-    <row r="124" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D124" s="33">
         <v>120</v>
       </c>
@@ -56175,7 +56175,7 @@
         <v>0.14395473464100395</v>
       </c>
     </row>
-    <row r="125" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D125" s="33">
         <v>121</v>
       </c>
@@ -56246,7 +56246,7 @@
         <v>0.13385264113746698</v>
       </c>
     </row>
-    <row r="126" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D126" s="33">
         <v>122</v>
       </c>
@@ -56317,7 +56317,7 @@
         <v>0.1229554583950998</v>
       </c>
     </row>
-    <row r="127" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D127" s="33">
         <v>123</v>
       </c>
@@ -56388,7 +56388,7 @@
         <v>0.11146560475141087</v>
       </c>
     </row>
-    <row r="128" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D128" s="33">
         <v>124</v>
       </c>
@@ -56459,7 +56459,7 @@
         <v>9.9582788421207491E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D129" s="33">
         <v>125</v>
       </c>
@@ -56530,7 +56530,7 @@
         <v>8.7500417916845374E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D130" s="33">
         <v>126</v>
       </c>
@@ -56601,7 +56601,7 @@
         <v>7.5402330283848018E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D131" s="33">
         <v>127</v>
       </c>
@@ -56672,7 +56672,7 @@
         <v>6.3459900458567087E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D132" s="33">
         <v>128</v>
       </c>
@@ -56743,7 +56743,7 @@
         <v>5.182958235794477E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D133" s="33">
         <v>129</v>
       </c>
@@ -56814,7 +56814,7 @@
         <v>4.0650918608486575E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D134" s="33">
         <v>130</v>
       </c>
@@ -56885,7 +56885,7 @@
         <v>3.0045041575758935E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D135" s="33">
         <v>131</v>
       </c>
@@ -56956,7 +56956,7 @@
         <v>2.0113674037511742E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D136" s="33">
         <v>132</v>
       </c>
@@ -57027,7 +57027,7 @@
         <v>1.0938623912815193E-2</v>
       </c>
     </row>
-    <row r="137" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D137" s="33">
         <v>133</v>
       </c>
@@ -57098,7 +57098,7 @@
         <v>2.5817543475208371E-3</v>
       </c>
     </row>
-    <row r="138" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D138" s="33">
         <v>134</v>
       </c>
@@ -57169,7 +57169,7 @@
         <v>-4.9146014444111374E-3</v>
       </c>
     </row>
-    <row r="139" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D139" s="33">
         <v>135</v>
       </c>
@@ -57240,7 +57240,7 @@
         <v>-1.1526821541502696E-2</v>
       </c>
     </row>
-    <row r="140" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D140" s="33">
         <v>136</v>
       </c>
@@ -57311,7 +57311,7 @@
         <v>-1.7248822383036599E-2</v>
       </c>
     </row>
-    <row r="141" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D141" s="33">
         <v>137</v>
       </c>
@@ -57382,7 +57382,7 @@
         <v>-2.2090587593253885E-2</v>
       </c>
     </row>
-    <row r="142" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D142" s="33">
         <v>138</v>
       </c>
@@ -57453,7 +57453,7 @@
         <v>-2.6076459040562328E-2</v>
       </c>
     </row>
-    <row r="143" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D143" s="33">
         <v>139</v>
       </c>
@@ -57524,7 +57524,7 @@
         <v>-2.9243252895359673E-2</v>
       </c>
     </row>
-    <row r="144" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D144" s="33">
         <v>140</v>
       </c>
@@ -57595,7 +57595,7 @@
         <v>-3.1638263636795061E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D145" s="33">
         <v>141</v>
       </c>
@@ -57666,7 +57666,7 @@
         <v>-3.3317217173764985E-2</v>
       </c>
     </row>
-    <row r="146" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D146" s="33">
         <v>142</v>
       </c>
@@ -57737,7 +57737,7 @@
         <v>-3.4342230672983226E-2</v>
       </c>
     </row>
-    <row r="147" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D147" s="33">
         <v>143</v>
       </c>
@@ -57808,7 +57808,7 @@
         <v>-3.4779831572750233E-2</v>
       </c>
     </row>
-    <row r="148" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D148" s="33">
         <v>144</v>
       </c>
@@ -57879,7 +57879,7 @@
         <v>-3.4699081891075928E-2</v>
       </c>
     </row>
-    <row r="149" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D149" s="33">
         <v>145</v>
       </c>
@@ -57950,7 +57950,7 @@
         <v>-3.4169846624403033E-2</v>
       </c>
     </row>
-    <row r="150" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D150" s="33">
         <v>146</v>
       </c>
@@ -58021,7 +58021,7 @@
         <v>-3.3261237108107924E-2</v>
       </c>
     </row>
-    <row r="151" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D151" s="33">
         <v>147</v>
       </c>
@@ -58093,7 +58093,7 @@
       </c>
       <c r="AC151" s="31"/>
     </row>
-    <row r="152" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D152" s="33">
         <v>148</v>
       </c>
@@ -58164,7 +58164,7 @@
         <v>-3.0570630376656881E-2</v>
       </c>
     </row>
-    <row r="153" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D153" s="33">
         <v>149</v>
       </c>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="AC153" s="29"/>
     </row>
-    <row r="154" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D154" s="33">
         <v>150</v>
       </c>
@@ -58307,7 +58307,7 @@
         <v>-2.711878495958462E-2</v>
       </c>
     </row>
-    <row r="155" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D155" s="33">
         <v>151</v>
       </c>
@@ -58378,7 +58378,7 @@
         <v>-2.5240470988315829E-2</v>
       </c>
     </row>
-    <row r="156" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D156" s="33">
         <v>152</v>
       </c>
@@ -58449,7 +58449,7 @@
         <v>-2.3320539915850497E-2</v>
       </c>
     </row>
-    <row r="157" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D157" s="33">
         <v>153</v>
       </c>
@@ -58520,7 +58520,7 @@
         <v>-2.1396731835833641E-2</v>
       </c>
     </row>
-    <row r="158" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D158" s="33">
         <v>154</v>
       </c>
@@ -58591,7 +58591,7 @@
         <v>-1.9501008837730517E-2</v>
       </c>
     </row>
-    <row r="159" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D159" s="33">
         <v>155</v>
       </c>
@@ -58662,7 +58662,7 @@
         <v>-1.7659732511526017E-2</v>
       </c>
     </row>
-    <row r="160" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D160" s="33">
         <v>156</v>
       </c>
@@ -58733,7 +58733,7 @@
         <v>-1.5893954581926897E-2</v>
       </c>
     </row>
-    <row r="161" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D161" s="33">
         <v>157</v>
       </c>
@@ -58804,7 +58804,7 @@
         <v>-1.4219796235157987E-2</v>
       </c>
     </row>
-    <row r="162" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D162" s="33">
         <v>158</v>
       </c>
@@ -58875,7 +58875,7 @@
         <v>-1.2648892332946776E-2</v>
       </c>
     </row>
-    <row r="163" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D163" s="33">
         <v>159</v>
       </c>
@@ -58946,7 +58946,7 @@
         <v>-1.1188878082355041E-2</v>
       </c>
     </row>
-    <row r="164" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D164" s="33">
         <v>160</v>
       </c>
@@ -59017,7 +59017,7 @@
         <v>-9.8438976974516354E-3</v>
       </c>
     </row>
-    <row r="165" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D165" s="33">
         <v>161</v>
       </c>
@@ -59088,7 +59088,7 @@
         <v>-8.6151169938723411E-3</v>
       </c>
     </row>
-    <row r="166" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D166" s="33">
         <v>162</v>
       </c>
@@ -59159,7 +59159,7 @@
         <v>-7.5012245461689546E-3</v>
       </c>
     </row>
-    <row r="167" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D167" s="33">
         <v>163</v>
       </c>
@@ -59230,7 +59230,7 @@
         <v>-6.4989088651135809E-3</v>
       </c>
     </row>
-    <row r="168" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D168" s="33">
         <v>164</v>
       </c>
@@ -59301,7 +59301,7 @@
         <v>-5.6033018865057661E-3</v>
       </c>
     </row>
-    <row r="169" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D169" s="33">
         <v>165</v>
       </c>
@@ -59372,7 +59372,7 @@
         <v>-4.8083817916677405E-3</v>
       </c>
     </row>
-    <row r="170" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D170" s="33">
         <v>166</v>
       </c>
@@ -59443,7 +59443,7 @@
         <v>-4.1073307109758591E-3</v>
       </c>
     </row>
-    <row r="171" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D171" s="33">
         <v>167</v>
       </c>
@@ -59514,7 +59514,7 @@
         <v>-3.4928451262470064E-3</v>
       </c>
     </row>
-    <row r="172" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D172" s="33">
         <v>168</v>
       </c>
@@ -59585,7 +59585,7 @@
         <v>-2.9573987388354333E-3</v>
       </c>
     </row>
-    <row r="173" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D173" s="33">
         <v>169</v>
       </c>
@@ -59656,7 +59656,7 @@
         <v>-2.4934591824873182E-3</v>
       </c>
     </row>
-    <row r="174" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D174" s="33">
         <v>170</v>
       </c>
@@ -59727,7 +59727,7 @@
         <v>-2.0936612271528375E-3</v>
       </c>
     </row>
-    <row r="175" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D175" s="33">
         <v>171</v>
       </c>
@@ -59798,7 +59798,7 @@
         <v>-1.7509400522966385E-3</v>
       </c>
     </row>
-    <row r="176" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D176" s="33">
         <v>172</v>
       </c>
@@ -59869,7 +59869,7 @@
         <v>-1.4586287892102031E-3</v>
       </c>
     </row>
-    <row r="177" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D177" s="33">
         <v>173</v>
       </c>
@@ -59940,7 +59940,7 @@
         <v>-1.2105248746400172E-3</v>
       </c>
     </row>
-    <row r="178" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D178" s="33">
         <v>174</v>
       </c>
@@ -60011,7 +60011,7 @@
         <v>-1.0009298623665148E-3</v>
       </c>
     </row>
-    <row r="179" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D179" s="33">
         <v>175</v>
       </c>
@@ -60082,7 +60082,7 @@
         <v>-8.2466724816441833E-4</v>
       </c>
     </row>
-    <row r="180" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D180" s="33">
         <v>176</v>
       </c>
@@ -60153,7 +60153,7 @@
         <v>-6.7708262035866176E-4</v>
       </c>
     </row>
-    <row r="181" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D181" s="33">
         <v>177</v>
       </c>
@@ -60224,7 +60224,7 @@
         <v>-5.540300947338674E-4</v>
       </c>
     </row>
-    <row r="182" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D182" s="33">
         <v>178</v>
       </c>
@@ -60295,7 +60295,7 @@
         <v>-4.5184856713549468E-4</v>
       </c>
     </row>
-    <row r="183" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D183" s="33">
         <v>179</v>
       </c>
@@ -60366,7 +60366,7 @@
         <v>-3.6733085326272737E-4</v>
       </c>
     </row>
-    <row r="184" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D184" s="33">
         <v>180</v>
       </c>
@@ -60437,7 +60437,7 @@
         <v>-2.9768831099228553E-4</v>
       </c>
     </row>
-    <row r="185" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D185" s="33">
         <v>181</v>
       </c>
@@ -60508,7 +60508,7 @@
         <v>-2.4051307845661781E-4</v>
       </c>
     </row>
-    <row r="186" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D186" s="33">
         <v>182</v>
       </c>
@@ -60579,7 +60579,7 @@
         <v>-1.9373962777757348E-4</v>
       </c>
     </row>
-    <row r="187" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D187" s="33">
         <v>183</v>
       </c>
@@ -60650,7 +60650,7 @@
         <v>-1.5560694134939294E-4</v>
       </c>
     </row>
-    <row r="188" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D188" s="33">
         <v>184</v>
       </c>
@@ -60721,7 +60721,7 @@
         <v>-1.2462227177451184E-4</v>
       </c>
     </row>
-    <row r="189" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D189" s="33">
         <v>185</v>
       </c>
@@ -60792,7 +60792,7 @@
         <v>-9.9527150990559896E-5</v>
       </c>
     </row>
-    <row r="190" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D190" s="33">
         <v>186</v>
       </c>
@@ -60863,7 +60863,7 @@
         <v>-7.9266068682940204E-5</v>
       </c>
     </row>
-    <row r="191" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D191" s="33">
         <v>187</v>
       </c>
@@ -60934,7 +60934,7 @@
         <v>-6.2958042309442289E-5</v>
       </c>
     </row>
-    <row r="192" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D192" s="33">
         <v>188</v>
       </c>
@@ -61005,7 +61005,7 @@
         <v>-4.9871146902430911E-5</v>
       </c>
     </row>
-    <row r="193" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D193" s="33">
         <v>189</v>
       </c>
@@ -61076,7 +61076,7 @@
         <v>-3.9399957198229275E-5</v>
       </c>
     </row>
-    <row r="194" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D194" s="33">
         <v>190</v>
       </c>
@@ -61147,7 +61147,7 @@
         <v>-3.1045772043635123E-5</v>
       </c>
     </row>
-    <row r="195" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D195" s="33">
         <v>191</v>
       </c>
@@ -61218,7 +61218,7 @@
         <v>-2.4399435865872554E-5</v>
       </c>
     </row>
-    <row r="196" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D196" s="33">
         <v>192</v>
       </c>
@@ -61289,7 +61289,7 @@
         <v>-1.9126538940064403E-5</v>
       </c>
     </row>
-    <row r="197" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D197" s="33">
         <v>193</v>
       </c>
@@ -61360,7 +61360,7 @@
         <v>-1.495476238637742E-5</v>
       </c>
     </row>
-    <row r="198" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D198" s="33">
         <v>194</v>
       </c>
@@ -61431,7 +61431,7 @@
         <v>-1.1663131003045117E-5</v>
       </c>
     </row>
-    <row r="199" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D199" s="33">
         <v>195</v>
       </c>
@@ -61502,7 +61502,7 @@
         <v>-9.0729435582131235E-6</v>
       </c>
     </row>
-    <row r="200" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D200" s="33">
         <v>196</v>
       </c>
@@ -61573,7 +61573,7 @@
         <v>-7.0401630330299638E-6</v>
       </c>
     </row>
-    <row r="201" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D201" s="33">
         <v>197</v>
       </c>
@@ -61644,7 +61644,7 @@
         <v>-5.4490661499033555E-6</v>
       </c>
     </row>
-    <row r="202" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D202" s="33">
         <v>198</v>
       </c>
@@ -61703,7 +61703,7 @@
       <c r="Y202" s="39"/>
       <c r="Z202" s="39"/>
     </row>
-    <row r="203" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D203" s="33">
         <v>199</v>
       </c>
@@ -61750,7 +61750,7 @@
       <c r="Y203" s="39"/>
       <c r="Z203" s="39"/>
     </row>
-    <row r="204" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D204" s="33">
         <v>200</v>
       </c>
@@ -61803,7 +61803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/LocVol Parameters.xlsx
+++ b/source/LocVol Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62907A-1A11-4F3C-B636-77D083680069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{DC62907A-1A11-4F3C-B636-77D083680069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2857FB77-9CE8-4D30-BFE9-5F9C72B7979B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="17616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRSMFORM" sheetId="1" r:id="rId1"/>
@@ -26126,25 +26126,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="40">
         <v>1.0822999976901</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -26173,7 +26174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -26229,7 +26230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="40">
         <v>2.7397260273999999E-3</v>
       </c>
@@ -26285,7 +26286,7 @@
         <v>0.1425855308592</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="40">
         <v>5.4794520547999997E-3</v>
       </c>
@@ -26341,7 +26342,7 @@
         <v>0.1203924027461</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="40">
         <v>1.3698630137E-2</v>
       </c>
@@ -26400,7 +26401,7 @@
         <v>0.1119965744464</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="40">
         <v>1.9178082191799999E-2</v>
       </c>
@@ -26456,7 +26457,7 @@
         <v>0.1107107890606</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="40">
         <v>2.4657534246599999E-2</v>
       </c>
@@ -26512,7 +26513,7 @@
         <v>0.11952873647789999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>65</v>
       </c>
@@ -26571,7 +26572,7 @@
         <v>0.1173419741591</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="40">
         <v>4.3835616438399998E-2</v>
       </c>
@@ -26627,7 +26628,7 @@
         <v>0.11274331937199999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="40">
         <v>6.3013698630100007E-2</v>
       </c>
@@ -26683,7 +26684,7 @@
         <v>0.112448036487</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="40">
         <v>7.9452054794500002E-2</v>
       </c>
@@ -26739,7 +26740,7 @@
         <v>0.11238719204600001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="40">
         <v>9.0410958904100003E-2</v>
       </c>
@@ -26795,7 +26796,7 @@
         <v>0.1121262326205</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" s="40">
         <v>9.5890410958899996E-2</v>
       </c>
@@ -26851,7 +26852,7 @@
         <v>0.1162458703394</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="40">
         <v>0.1369863013699</v>
       </c>
@@ -26907,7 +26908,7 @@
         <v>0.1207172875696</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="40">
         <v>0.1397260273973</v>
       </c>
@@ -26963,7 +26964,7 @@
         <v>0.1247241553668</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="40">
         <v>0.158904109589</v>
       </c>
@@ -27019,7 +27020,7 @@
         <v>0.13325857752119999</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="40">
         <v>0.16986301369859999</v>
       </c>
@@ -27051,7 +27052,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="40">
         <v>0.21643835616439999</v>
       </c>
@@ -27083,7 +27084,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="40">
         <v>0.24657534246580001</v>
       </c>
@@ -27115,7 +27116,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="40">
         <v>0.2520547945205</v>
       </c>
@@ -27147,7 +27148,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="40">
         <v>0.33972602739730001</v>
       </c>
@@ -27179,7 +27180,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="40">
         <v>0.34520547945210001</v>
       </c>
@@ -27211,7 +27212,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="40">
         <v>0.35068493150680002</v>
       </c>
@@ -27243,7 +27244,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="40">
         <v>0.38630136986300001</v>
       </c>
@@ -27275,7 +27276,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="40">
         <v>0.38904109589039998</v>
       </c>
@@ -27295,7 +27296,7 @@
         <v>-4.4697237919999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="40">
         <v>0.41917808219180003</v>
       </c>
@@ -27315,7 +27316,7 @@
         <v>8.4563110899999995E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="40">
         <v>0.46575342465750003</v>
       </c>
@@ -27335,7 +27336,7 @@
         <v>-1.8521255959999999E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="40">
         <v>0.49863013698629999</v>
       </c>
@@ -27358,7 +27359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="40">
         <v>0.50410958904110004</v>
       </c>
@@ -27393,7 +27394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="40">
         <v>0.61369863013699999</v>
       </c>
@@ -27428,7 +27429,7 @@
         <v>1.0928611436024001</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="40">
         <v>0.61917808219180004</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>1.1060402313711</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="40">
         <v>0.63835616438359999</v>
       </c>
@@ -27498,7 +27499,7 @@
         <v>1.1138330420706</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="40">
         <v>0.64657534246579995</v>
       </c>
@@ -27533,7 +27534,7 @@
         <v>1.127924371722</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="40">
         <v>0.73424657534250004</v>
       </c>
@@ -27568,7 +27569,7 @@
         <v>1.1538059215845</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="40">
         <v>0.75068493150680005</v>
       </c>
@@ -27603,7 +27604,7 @@
         <v>1.1714163164200999</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="40">
         <v>0.76164383561640003</v>
       </c>
@@ -27638,7 +27639,7 @@
         <v>1.2097180230955</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="40">
         <v>0.84931506849320004</v>
       </c>
@@ -27673,7 +27674,7 @@
         <v>1.2441955366813</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" s="40">
         <v>0.86301369863010002</v>
       </c>
@@ -27708,7 +27709,7 @@
         <v>1.2755193361949999</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="40">
         <v>0.88767123287670002</v>
       </c>
@@ -27743,7 +27744,7 @@
         <v>1.3753185664284</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" s="40">
         <v>0.89589041095889999</v>
       </c>
@@ -27778,7 +27779,7 @@
         <v>1.4851170685057</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" s="40">
         <v>1</v>
       </c>
@@ -27813,7 +27814,7 @@
         <v>1.6968820364574999</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="40">
         <v>1.0109589041096001</v>
       </c>
@@ -27848,7 +27849,7 @@
         <v>1.9150657702731</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" s="40">
         <v>1.0164383561643999</v>
       </c>
@@ -27883,7 +27884,7 @@
         <v>2.3036276843243999</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" s="40">
         <v>1.2630136986300999</v>
       </c>
@@ -27908,7 +27909,7 @@
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" s="40">
         <v>1.5150684931506999</v>
       </c>
@@ -27933,7 +27934,7 @@
       <c r="Q48" s="40"/>
       <c r="R48" s="40"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="40">
         <v>1.7643835616437999</v>
       </c>
@@ -27958,7 +27959,7 @@
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="40">
         <v>1.9972602739726</v>
       </c>
@@ -27983,7 +27984,7 @@
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="40">
         <v>2.0082191780822001</v>
       </c>
@@ -28008,7 +28009,7 @@
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="40">
         <v>2.0136986301370001</v>
       </c>
@@ -28033,7 +28034,7 @@
       <c r="Q52" s="40"/>
       <c r="R52" s="40"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="40">
         <v>2.9972602739726</v>
       </c>
@@ -28058,7 +28059,7 @@
       <c r="Q53" s="40"/>
       <c r="R53" s="40"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" s="40">
         <v>3.0082191780822001</v>
       </c>
@@ -28083,7 +28084,7 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="40"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" s="40">
         <v>3.0136986301370001</v>
       </c>
@@ -28103,7 +28104,7 @@
         <v>-3.3861605999999998E-5</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" s="40">
         <v>4.0082191780822001</v>
       </c>
@@ -28123,7 +28124,7 @@
         <v>3.4760200000000002E-7</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" s="40">
         <v>4.0136986301370001</v>
       </c>
@@ -28143,7 +28144,7 @@
         <v>-1.9807499500000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" s="40">
         <v>5.0054794520548</v>
       </c>
@@ -28163,7 +28164,7 @@
         <v>1.2203675000000001E-6</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" s="40">
         <v>5.0109589041096001</v>
       </c>
@@ -28183,7 +28184,7 @@
         <v>-1.3999513099999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" s="40">
         <v>5.0246575342466002</v>
       </c>
@@ -28203,7 +28204,7 @@
         <v>1.2243287E-6</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" s="40">
         <v>6.0219178082192002</v>
       </c>
@@ -28223,7 +28224,7 @@
         <v>1.7979840999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="40">
         <v>7.0027397260274</v>
       </c>
@@ -28243,7 +28244,7 @@
         <v>-6.9743163999999996E-6</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" s="40">
         <v>7.0136986301370001</v>
       </c>
@@ -28263,7 +28264,7 @@
         <v>2.3987668000000001E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" s="40">
         <v>7.0191780821918002</v>
       </c>
@@ -28283,7 +28284,7 @@
         <v>2.4007969000000001E-6</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="40">
         <v>8.0164383561644001</v>
       </c>
@@ -28303,7 +28304,7 @@
         <v>2.6608752E-6</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="40">
         <v>9.0191780821918002</v>
       </c>
@@ -28323,7 +28324,7 @@
         <v>-3.8421239999999998E-6</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="40">
         <v>10.0082191780822</v>
       </c>
@@ -28343,7 +28344,7 @@
         <v>2.4127046E-6</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="40">
         <v>10.013698630137</v>
       </c>
@@ -28363,7 +28364,7 @@
         <v>-6.3167837999999999E-6</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="40">
         <v>10.027397260274</v>
       </c>
@@ -28383,7 +28384,7 @@
         <v>2.4069873000000001E-6</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="40">
         <v>12.0246575342466</v>
       </c>
@@ -28403,7 +28404,7 @@
         <v>1.8319129E-6</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="40">
         <v>15.0164383561644</v>
       </c>
@@ -28423,7 +28424,7 @@
         <v>1.2807922999999999E-6</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="40">
         <v>15.0219178082192</v>
       </c>
@@ -28443,7 +28444,7 @@
         <v>-2.9263192E-6</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="40">
         <v>20.0191780821918</v>
       </c>
@@ -28463,7 +28464,7 @@
         <v>7.5349260000000001E-7</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="40">
         <v>20.0246575342466</v>
       </c>
@@ -28483,7 +28484,7 @@
         <v>-2.6090055E-6</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="40">
         <v>25.0301369863014</v>
       </c>
@@ -28503,7 +28504,7 @@
         <v>-2.1142105999999999E-6</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="40">
         <v>30.027397260274</v>
       </c>
@@ -28523,7 +28524,7 @@
         <v>6.5530229999999998E-7</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="40">
         <v>30.0328767123288</v>
       </c>
@@ -28543,7 +28544,7 @@
         <v>6.5531090000000004E-7</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="40">
         <v>40.0438356164384</v>
       </c>
@@ -28563,7 +28564,7 @@
         <v>6.940074E-7</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="40">
         <v>50.0520547945206</v>
       </c>
@@ -28590,7 +28591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C291AD7B-5D55-4FB9-9540-2A8C212607AE}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:IS135"/>
@@ -28599,9 +28600,9 @@
       <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -28612,7 +28613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -28674,7 +28675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -28732,7 +28733,7 @@
         <v>2.1197609155300001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -28790,7 +28791,7 @@
         <v>4.7359231272900003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>6.1988012100200003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -28906,7 +28907,7 @@
         <v>8.7548733770299994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>5</v>
       </c>
@@ -28964,7 +28965,7 @@
         <v>0.1346704984181</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>6</v>
       </c>
@@ -29022,7 +29023,7 @@
         <v>0.16598198913910001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -29080,7 +29081,7 @@
         <v>0.23051748352160001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>8</v>
       </c>
@@ -29138,7 +29139,7 @@
         <v>0.28339410176570001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>9</v>
       </c>
@@ -29196,7 +29197,7 @@
         <v>0.3270493661653</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>10</v>
       </c>
@@ -29254,7 +29255,7 @@
         <v>0.4607933753981</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" s="21">
         <v>11</v>
       </c>
@@ -29312,7 +29313,7 @@
         <v>0.57484851881709997</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
         <v>12</v>
       </c>
@@ -29370,7 +29371,7 @@
         <v>0.76370305811030004</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
         <v>13</v>
       </c>
@@ -29428,7 +29429,7 @@
         <v>0.92761506616169997</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>14</v>
       </c>
@@ -29486,7 +29487,7 @@
         <v>1.2260690482028</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -29508,7 +29509,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="13"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -29530,7 +29531,7 @@
       <c r="V19" s="16"/>
       <c r="W19" s="13"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -29552,7 +29553,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="13"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -29574,7 +29575,7 @@
       <c r="V21" s="16"/>
       <c r="W21" s="13"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -29596,7 +29597,7 @@
       <c r="V22" s="16"/>
       <c r="W22" s="13"/>
     </row>
-    <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="22"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
@@ -29618,7 +29619,7 @@
       <c r="V23" s="19"/>
       <c r="W23" s="14"/>
     </row>
-    <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" t="s">
         <v>28</v>
       </c>
@@ -29629,7 +29630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I26" s="7" t="s">
         <v>24</v>
       </c>
@@ -29694,7 +29695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I27" s="11">
         <v>0.1513067939095</v>
       </c>
@@ -29741,7 +29742,7 @@
       </c>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I28" s="11">
         <v>0.1339038971415</v>
       </c>
@@ -29788,7 +29789,7 @@
       </c>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I29" s="11">
         <v>0.13441259247260001</v>
       </c>
@@ -29835,7 +29836,7 @@
       </c>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I30" s="11">
         <v>0.15101787841370001</v>
       </c>
@@ -29882,7 +29883,7 @@
       </c>
       <c r="AE30" s="13"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I31" s="11">
         <v>0.17950923153330001</v>
       </c>
@@ -29929,7 +29930,7 @@
       </c>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="I32" s="11">
         <v>0.18356328803950001</v>
       </c>
@@ -29976,7 +29977,7 @@
       </c>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I33" s="11">
         <v>0.1923327598948</v>
       </c>
@@ -30023,7 +30024,7 @@
       </c>
       <c r="AE33" s="13"/>
     </row>
-    <row r="34" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I34" s="11">
         <v>0.19837434487710001</v>
       </c>
@@ -30070,7 +30071,7 @@
       </c>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I35" s="11">
         <v>0.20333851351609999</v>
       </c>
@@ -30117,7 +30118,7 @@
       </c>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I36" s="11">
         <v>0.19996168653730001</v>
       </c>
@@ -30164,7 +30165,7 @@
       </c>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I37" s="11">
         <v>0.19859574348860001</v>
       </c>
@@ -30211,7 +30212,7 @@
       </c>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I38" s="11">
         <v>0.2012597693497</v>
       </c>
@@ -30258,7 +30259,7 @@
       </c>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I39" s="11">
         <v>0.20491294632000001</v>
       </c>
@@ -30305,7 +30306,7 @@
       </c>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I40" s="11">
         <v>0.22833024626199999</v>
       </c>
@@ -30352,7 +30353,7 @@
       </c>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I41" s="11"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -30375,7 +30376,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I42" s="11"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -30398,7 +30399,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I43" s="11"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -30421,7 +30422,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I44" s="11"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -30444,7 +30445,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I45" s="11"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -30467,7 +30468,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I46" s="12"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -30490,7 +30491,7 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="14"/>
     </row>
-    <row r="48" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I48" t="s">
         <v>30</v>
       </c>
@@ -30501,7 +30502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
@@ -30566,7 +30567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I50" s="11">
         <v>0.15530318959760001</v>
       </c>
@@ -30613,7 +30614,7 @@
       </c>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I51" s="11">
         <v>0.13131983501710001</v>
       </c>
@@ -30660,7 +30661,7 @@
       </c>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I52" s="11">
         <v>0.124343669004</v>
       </c>
@@ -30707,7 +30708,7 @@
       </c>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I53" s="11">
         <v>0.1502032016347</v>
       </c>
@@ -30754,7 +30755,7 @@
       </c>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I54" s="11">
         <v>0.19070085713339999</v>
       </c>
@@ -30801,7 +30802,7 @@
       </c>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I55" s="11">
         <v>0.17268768355149999</v>
       </c>
@@ -30848,7 +30849,7 @@
       </c>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I56" s="11">
         <v>0.18236044372499999</v>
       </c>
@@ -30895,7 +30896,7 @@
       </c>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I57" s="11">
         <v>0.18653411144240001</v>
       </c>
@@ -30942,7 +30943,7 @@
       </c>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I58" s="11">
         <v>0.18880853595829999</v>
       </c>
@@ -30989,7 +30990,7 @@
       </c>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I59" s="11">
         <v>0.1833484587576</v>
       </c>
@@ -31036,7 +31037,7 @@
       </c>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I60" s="11">
         <v>0.17897518869849999</v>
       </c>
@@ -31083,7 +31084,7 @@
       </c>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I61" s="11">
         <v>0.1919364411691</v>
       </c>
@@ -31130,7 +31131,7 @@
       </c>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I62" s="11">
         <v>0.19765052317029999</v>
       </c>
@@ -31177,7 +31178,7 @@
       </c>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I63" s="11">
         <v>0.26234910615250001</v>
       </c>
@@ -31224,7 +31225,7 @@
       </c>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I64" s="11"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -31247,7 +31248,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I65" s="11"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -31270,7 +31271,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I66" s="11"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -31293,7 +31294,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I67" s="11"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -31316,7 +31317,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I68" s="11"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -31339,7 +31340,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I69" s="12"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -31362,7 +31363,7 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="14"/>
     </row>
-    <row r="71" spans="9:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I71" t="s">
         <v>33</v>
       </c>
@@ -31373,7 +31374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I72" s="7" t="s">
         <v>24</v>
       </c>
@@ -31438,7 +31439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I73" s="11"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -31461,7 +31462,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="13"/>
     </row>
-    <row r="74" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I74" s="11"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -31484,7 +31485,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I75" s="11"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -31507,7 +31508,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="13"/>
     </row>
-    <row r="76" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I76" s="11"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -31530,7 +31531,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I77" s="11"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -31553,7 +31554,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="13"/>
     </row>
-    <row r="78" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I78" s="11"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -31576,7 +31577,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="13"/>
     </row>
-    <row r="79" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I79" s="11"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -31599,7 +31600,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="13"/>
     </row>
-    <row r="80" spans="9:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:31" x14ac:dyDescent="0.3">
       <c r="I80" s="11"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -31622,7 +31623,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="13"/>
     </row>
-    <row r="81" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I81" s="11"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -31645,7 +31646,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="13"/>
     </row>
-    <row r="82" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I82" s="11"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -31668,7 +31669,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="13"/>
     </row>
-    <row r="83" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I83" s="11"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -31691,7 +31692,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="13"/>
     </row>
-    <row r="84" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I84" s="11"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -31714,7 +31715,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="13"/>
     </row>
-    <row r="85" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I85" s="11"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -31737,7 +31738,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="13"/>
     </row>
-    <row r="86" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I86" s="11"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -31760,7 +31761,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="13"/>
     </row>
-    <row r="87" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I87" s="11"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -31783,7 +31784,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="13"/>
     </row>
-    <row r="88" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I88" s="11"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -31806,7 +31807,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I89" s="11"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -31829,7 +31830,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I90" s="11"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -31852,7 +31853,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:253" x14ac:dyDescent="0.3">
       <c r="I91" s="11"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -31875,7 +31876,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="13"/>
     </row>
-    <row r="92" spans="1:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:253" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I92" s="12"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -31898,12 +31899,12 @@
       <c r="AD92" s="5"/>
       <c r="AE92" s="14"/>
     </row>
-    <row r="94" spans="1:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:253" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:253" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>2</v>
       </c>
@@ -32661,7 +32662,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:253" x14ac:dyDescent="0.3">
       <c r="B96" s="42">
         <v>1</v>
       </c>
@@ -33113,7 +33114,7 @@
       <c r="IR96" s="16"/>
       <c r="IS96" s="17"/>
     </row>
-    <row r="97" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B97" s="42"/>
       <c r="C97" s="23" t="s">
         <v>37</v>
@@ -33563,7 +33564,7 @@
       <c r="IR97" s="24"/>
       <c r="IS97" s="25"/>
     </row>
-    <row r="98" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B98" s="42">
         <v>2</v>
       </c>
@@ -34015,7 +34016,7 @@
       <c r="IR98" s="16"/>
       <c r="IS98" s="17"/>
     </row>
-    <row r="99" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B99" s="42"/>
       <c r="C99" s="23" t="s">
         <v>37</v>
@@ -34465,7 +34466,7 @@
       <c r="IR99" s="24"/>
       <c r="IS99" s="25"/>
     </row>
-    <row r="100" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B100" s="42">
         <v>3</v>
       </c>
@@ -34857,7 +34858,7 @@
       <c r="IR100" s="16"/>
       <c r="IS100" s="17"/>
     </row>
-    <row r="101" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B101" s="42"/>
       <c r="C101" s="23" t="s">
         <v>37</v>
@@ -35247,7 +35248,7 @@
       <c r="IR101" s="24"/>
       <c r="IS101" s="25"/>
     </row>
-    <row r="102" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B102" s="42">
         <v>4</v>
       </c>
@@ -35651,7 +35652,7 @@
       <c r="IR102" s="16"/>
       <c r="IS102" s="17"/>
     </row>
-    <row r="103" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B103" s="42"/>
       <c r="C103" s="23" t="s">
         <v>37</v>
@@ -36053,7 +36054,7 @@
       <c r="IR103" s="24"/>
       <c r="IS103" s="25"/>
     </row>
-    <row r="104" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B104" s="42">
         <v>5</v>
       </c>
@@ -36469,7 +36470,7 @@
       <c r="IR104" s="16"/>
       <c r="IS104" s="17"/>
     </row>
-    <row r="105" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B105" s="42"/>
       <c r="C105" s="23" t="s">
         <v>37</v>
@@ -36883,7 +36884,7 @@
       <c r="IR105" s="24"/>
       <c r="IS105" s="25"/>
     </row>
-    <row r="106" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B106" s="42">
         <v>6</v>
       </c>
@@ -37267,7 +37268,7 @@
       <c r="IR106" s="16"/>
       <c r="IS106" s="17"/>
     </row>
-    <row r="107" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B107" s="42"/>
       <c r="C107" s="23" t="s">
         <v>37</v>
@@ -37649,7 +37650,7 @@
       <c r="IR107" s="24"/>
       <c r="IS107" s="25"/>
     </row>
-    <row r="108" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B108" s="42">
         <v>7</v>
       </c>
@@ -38049,7 +38050,7 @@
       <c r="IR108" s="16"/>
       <c r="IS108" s="17"/>
     </row>
-    <row r="109" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B109" s="42"/>
       <c r="C109" s="23" t="s">
         <v>37</v>
@@ -38447,7 +38448,7 @@
       <c r="IR109" s="24"/>
       <c r="IS109" s="25"/>
     </row>
-    <row r="110" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B110" s="42">
         <v>8</v>
       </c>
@@ -38839,7 +38840,7 @@
       <c r="IR110" s="16"/>
       <c r="IS110" s="17"/>
     </row>
-    <row r="111" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B111" s="42"/>
       <c r="C111" s="23" t="s">
         <v>37</v>
@@ -39229,7 +39230,7 @@
       <c r="IR111" s="24"/>
       <c r="IS111" s="25"/>
     </row>
-    <row r="112" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B112" s="42">
         <v>9</v>
       </c>
@@ -39641,7 +39642,7 @@
       <c r="IR112" s="16"/>
       <c r="IS112" s="17"/>
     </row>
-    <row r="113" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B113" s="42"/>
       <c r="C113" s="23" t="s">
         <v>37</v>
@@ -40051,7 +40052,7 @@
       <c r="IR113" s="24"/>
       <c r="IS113" s="25"/>
     </row>
-    <row r="114" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B114" s="42">
         <v>10</v>
       </c>
@@ -40523,7 +40524,7 @@
       <c r="IR114" s="16"/>
       <c r="IS114" s="17"/>
     </row>
-    <row r="115" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B115" s="42"/>
       <c r="C115" s="23" t="s">
         <v>37</v>
@@ -40993,7 +40994,7 @@
       <c r="IR115" s="24"/>
       <c r="IS115" s="25"/>
     </row>
-    <row r="116" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B116" s="42">
         <v>11</v>
       </c>
@@ -41517,7 +41518,7 @@
       <c r="IR116" s="16"/>
       <c r="IS116" s="17"/>
     </row>
-    <row r="117" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B117" s="42"/>
       <c r="C117" s="23" t="s">
         <v>37</v>
@@ -42039,7 +42040,7 @@
       <c r="IR117" s="24"/>
       <c r="IS117" s="25"/>
     </row>
-    <row r="118" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B118" s="42">
         <v>12</v>
       </c>
@@ -42647,7 +42648,7 @@
       <c r="IR118" s="16"/>
       <c r="IS118" s="17"/>
     </row>
-    <row r="119" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B119" s="42"/>
       <c r="C119" s="23" t="s">
         <v>37</v>
@@ -43253,7 +43254,7 @@
       <c r="IR119" s="24"/>
       <c r="IS119" s="25"/>
     </row>
-    <row r="120" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B120" s="42">
         <v>13</v>
       </c>
@@ -43913,7 +43914,7 @@
       <c r="IR120" s="16"/>
       <c r="IS120" s="17"/>
     </row>
-    <row r="121" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B121" s="42"/>
       <c r="C121" s="23" t="s">
         <v>37</v>
@@ -44571,7 +44572,7 @@
       <c r="IR121" s="24"/>
       <c r="IS121" s="25"/>
     </row>
-    <row r="122" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B122" s="42">
         <v>14</v>
       </c>
@@ -45231,7 +45232,7 @@
       <c r="IR122" s="16"/>
       <c r="IS122" s="17"/>
     </row>
-    <row r="123" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B123" s="42"/>
       <c r="C123" s="23" t="s">
         <v>37</v>
@@ -45889,7 +45890,7 @@
       <c r="IR123" s="24"/>
       <c r="IS123" s="25"/>
     </row>
-    <row r="124" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B124" s="42">
         <v>15</v>
       </c>
@@ -46147,7 +46148,7 @@
       <c r="IR124" s="16"/>
       <c r="IS124" s="17"/>
     </row>
-    <row r="125" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B125" s="42"/>
       <c r="C125" s="23" t="s">
         <v>37</v>
@@ -46403,7 +46404,7 @@
       <c r="IR125" s="24"/>
       <c r="IS125" s="25"/>
     </row>
-    <row r="126" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B126" s="42">
         <v>16</v>
       </c>
@@ -46661,7 +46662,7 @@
       <c r="IR126" s="16"/>
       <c r="IS126" s="17"/>
     </row>
-    <row r="127" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B127" s="42"/>
       <c r="C127" s="23" t="s">
         <v>37</v>
@@ -46917,7 +46918,7 @@
       <c r="IR127" s="24"/>
       <c r="IS127" s="25"/>
     </row>
-    <row r="128" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B128" s="42">
         <v>17</v>
       </c>
@@ -47175,7 +47176,7 @@
       <c r="IR128" s="16"/>
       <c r="IS128" s="17"/>
     </row>
-    <row r="129" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B129" s="42"/>
       <c r="C129" s="23" t="s">
         <v>37</v>
@@ -47431,7 +47432,7 @@
       <c r="IR129" s="24"/>
       <c r="IS129" s="25"/>
     </row>
-    <row r="130" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B130" s="42">
         <v>18</v>
       </c>
@@ -47689,7 +47690,7 @@
       <c r="IR130" s="16"/>
       <c r="IS130" s="17"/>
     </row>
-    <row r="131" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B131" s="42"/>
       <c r="C131" s="23" t="s">
         <v>37</v>
@@ -47945,7 +47946,7 @@
       <c r="IR131" s="24"/>
       <c r="IS131" s="25"/>
     </row>
-    <row r="132" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B132" s="42">
         <v>19</v>
       </c>
@@ -48203,7 +48204,7 @@
       <c r="IR132" s="16"/>
       <c r="IS132" s="17"/>
     </row>
-    <row r="133" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B133" s="42"/>
       <c r="C133" s="23" t="s">
         <v>37</v>
@@ -48459,7 +48460,7 @@
       <c r="IR133" s="24"/>
       <c r="IS133" s="25"/>
     </row>
-    <row r="134" spans="2:253" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:253" x14ac:dyDescent="0.3">
       <c r="B134" s="42">
         <v>20</v>
       </c>
@@ -48717,7 +48718,7 @@
       <c r="IR134" s="16"/>
       <c r="IS134" s="17"/>
     </row>
-    <row r="135" spans="2:253" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:253" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="43"/>
       <c r="C135" s="26" t="s">
         <v>37</v>
@@ -49005,32 +49006,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E084E794-C701-47B0-AF1A-32DC60A7FA4D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:BC204"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="20" width="12.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="20" width="12.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="O2" t="s">
         <v>53</v>
       </c>
@@ -49038,7 +49040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -49109,7 +49111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -49155,7 +49157,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -49208,7 +49210,7 @@
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -49273,7 +49275,7 @@
       <c r="Y6" s="39"/>
       <c r="Z6" s="39"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -49351,7 +49353,7 @@
         <v>1.6258567796404891E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D8" s="33">
         <v>4</v>
       </c>
@@ -49422,7 +49424,7 @@
         <v>2.1843246343964069E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D9" s="33">
         <v>5</v>
       </c>
@@ -49493,7 +49495,7 @@
         <v>2.7522757366175904E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D10" s="33">
         <v>6</v>
       </c>
@@ -49564,7 +49566,7 @@
         <v>3.3306517617026812E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="33">
         <v>7</v>
       </c>
@@ -49635,7 +49637,7 @@
         <v>3.920415369144243E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="33">
         <v>8</v>
       </c>
@@ -49706,7 +49708,7 @@
         <v>4.5225469085091841E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D13" s="33">
         <v>9</v>
       </c>
@@ -49777,7 +49779,7 @@
         <v>5.1380402548755186E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="33">
         <v>10</v>
       </c>
@@ -49848,7 +49850,7 @@
         <v>5.7678976426616312E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D15" s="33">
         <v>11</v>
       </c>
@@ -49919,7 +49921,7 @@
         <v>6.4131233324901157E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="33">
         <v>12</v>
       </c>
@@ -49990,7 +49992,7 @@
         <v>7.0747159832167825E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D17" s="33">
         <v>13</v>
       </c>
@@ -50061,7 +50063,7 @@
         <v>7.7536595435825861E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D18" s="33">
         <v>14</v>
       </c>
@@ -50132,7 +50134,7 @@
         <v>8.4509124766812452E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D19" s="33">
         <v>15</v>
       </c>
@@ -50203,7 +50205,7 @@
         <v>9.1673951428642847E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D20" s="33">
         <v>16</v>
       </c>
@@ -50277,7 +50279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D21" s="33">
         <v>17</v>
       </c>
@@ -50348,7 +50350,7 @@
         <v>0.10661450381255694</v>
       </c>
     </row>
-    <row r="22" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D22" s="33">
         <v>18</v>
       </c>
@@ -50419,7 +50421,7 @@
         <v>0.11440529791828942</v>
       </c>
     </row>
-    <row r="23" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D23" s="33">
         <v>19</v>
       </c>
@@ -50490,7 +50492,7 @@
         <v>0.12241811295285583</v>
       </c>
     </row>
-    <row r="24" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D24" s="33">
         <v>20</v>
       </c>
@@ -50561,7 +50563,7 @@
         <v>0.13065757019446578</v>
       </c>
     </row>
-    <row r="25" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D25" s="33">
         <v>21</v>
       </c>
@@ -50632,7 +50634,7 @@
         <v>0.13912665512941055</v>
       </c>
     </row>
-    <row r="26" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D26" s="33">
         <v>22</v>
       </c>
@@ -50703,7 +50705,7 @@
         <v>0.14782640816741241</v>
       </c>
     </row>
-    <row r="27" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D27" s="33">
         <v>23</v>
       </c>
@@ -50774,7 +50776,7 @@
         <v>0.15675558289628738</v>
       </c>
     </row>
-    <row r="28" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D28" s="33">
         <v>24</v>
       </c>
@@ -50845,7 +50847,7 @@
         <v>0.16591027121440574</v>
       </c>
     </row>
-    <row r="29" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D29" s="33">
         <v>25</v>
       </c>
@@ -50916,7 +50918,7 @@
         <v>0.17528349498238335</v>
       </c>
     </row>
-    <row r="30" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D30" s="33">
         <v>26</v>
       </c>
@@ -50987,7 +50989,7 @@
         <v>0.18486476477058905</v>
       </c>
     </row>
-    <row r="31" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D31" s="33">
         <v>27</v>
       </c>
@@ -51058,7 +51060,7 @@
         <v>0.19463960680169584</v>
       </c>
     </row>
-    <row r="32" spans="4:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D32" s="33">
         <v>28</v>
       </c>
@@ -51129,7 +51131,7 @@
         <v>0.20458906025011078</v>
       </c>
     </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D33" s="33">
         <v>29</v>
       </c>
@@ -51200,7 +51202,7 @@
         <v>0.21468914791890142</v>
       </c>
     </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D34" s="33">
         <v>30</v>
       </c>
@@ -51271,7 +51273,7 @@
         <v>0.22491032448359841</v>
       </c>
     </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D35" s="33">
         <v>31</v>
       </c>
@@ -51342,7 +51344,7 @@
         <v>0.23521690784732355</v>
       </c>
     </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D36" s="33">
         <v>32</v>
       </c>
@@ -51413,7 +51415,7 @@
         <v>0.24556650053196438</v>
       </c>
     </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D37" s="33">
         <v>33</v>
       </c>
@@ -51484,7 +51486,7 @@
         <v>0.255909409390426</v>
       </c>
     </row>
-    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D38" s="33">
         <v>34</v>
       </c>
@@ -51555,7 +51557,7 @@
         <v>0.26618807363011016</v>
       </c>
     </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D39" s="33">
         <v>35</v>
       </c>
@@ -51626,7 +51628,7 @@
         <v>0.2763365129210239</v>
       </c>
     </row>
-    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D40" s="33">
         <v>36</v>
       </c>
@@ -51697,7 +51699,7 @@
         <v>0.2862798088263997</v>
       </c>
     </row>
-    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D41" s="33">
         <v>37</v>
       </c>
@@ -51768,7 +51770,7 @@
         <v>0.29593363460275501</v>
       </c>
     </row>
-    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D42" s="33">
         <v>38</v>
       </c>
@@ -51839,7 +51841,7 @@
         <v>0.30520385016974383</v>
       </c>
     </row>
-    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D43" s="33">
         <v>39</v>
       </c>
@@ -51910,7 +51912,7 @@
         <v>0.31398618068159101</v>
       </c>
     </row>
-    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D44" s="33">
         <v>40</v>
       </c>
@@ -51981,7 +51983,7 @@
         <v>0.32216599841588905</v>
       </c>
     </row>
-    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D45" s="33">
         <v>41</v>
       </c>
@@ -52052,7 +52054,7 @@
         <v>0.32961822910892397</v>
       </c>
     </row>
-    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D46" s="33">
         <v>42</v>
       </c>
@@ -52123,7 +52125,7 @@
         <v>0.33620740488294815</v>
       </c>
     </row>
-    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D47" s="33">
         <v>43</v>
       </c>
@@ -52194,7 +52196,7 @@
         <v>0.34178788661370207</v>
       </c>
     </row>
-    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D48" s="33">
         <v>44</v>
       </c>
@@ -52265,7 +52267,7 @@
         <v>0.34620427892893063</v>
       </c>
     </row>
-    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D49" s="33">
         <v>45</v>
       </c>
@@ -52336,7 +52338,7 @@
         <v>0.34929206069699259</v>
       </c>
     </row>
-    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D50" s="33">
         <v>46</v>
       </c>
@@ -52407,7 +52409,7 @@
         <v>0.35087845351531521</v>
       </c>
     </row>
-    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D51" s="33">
         <v>47</v>
       </c>
@@ -52478,7 +52480,7 @@
         <v>0.35078354922679361</v>
       </c>
     </row>
-    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D52" s="33">
         <v>48</v>
       </c>
@@ -52549,7 +52551,7 @@
         <v>0.34882171557018365</v>
       </c>
     </row>
-    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D53" s="33">
         <v>49</v>
       </c>
@@ -52620,7 +52622,7 @@
         <v>0.34480329670322757</v>
       </c>
     </row>
-    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D54" s="33">
         <v>50</v>
       </c>
@@ -52691,7 +52693,7 @@
         <v>0.33853662177834992</v>
       </c>
     </row>
-    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D55" s="33">
         <v>51</v>
       </c>
@@ -52762,7 +52764,7 @@
         <v>0.32983033076684559</v>
       </c>
     </row>
-    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D56" s="33">
         <v>52</v>
       </c>
@@ -52833,7 +52835,7 @@
         <v>0.31849602200181454</v>
       </c>
     </row>
-    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D57" s="33">
         <v>53</v>
       </c>
@@ -52904,7 +52906,7 @@
         <v>0.30435122013388061</v>
       </c>
     </row>
-    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D58" s="33">
         <v>54</v>
       </c>
@@ -52975,7 +52977,7 @@
         <v>0.28722265704200989</v>
       </c>
     </row>
-    <row r="59" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D59" s="33">
         <v>55</v>
       </c>
@@ -53046,7 +53048,7 @@
         <v>0.26694985129654125</v>
       </c>
     </row>
-    <row r="60" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D60" s="33">
         <v>56</v>
       </c>
@@ -53117,7 +53119,7 @@
         <v>0.24338896418459477</v>
       </c>
     </row>
-    <row r="61" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D61" s="33">
         <v>57</v>
       </c>
@@ -53188,7 +53190,7 @@
         <v>0.21641690243541722</v>
       </c>
     </row>
-    <row r="62" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D62" s="33">
         <v>58</v>
       </c>
@@ -53259,7 +53261,7 @@
         <v>0.18593562933583252</v>
       </c>
     </row>
-    <row r="63" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D63" s="33">
         <v>59</v>
       </c>
@@ -53330,7 +53332,7 @@
         <v>0.15187663747848879</v>
       </c>
     </row>
-    <row r="64" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D64" s="33">
         <v>60</v>
       </c>
@@ -53401,7 +53403,7 @@
         <v>0.11420552787080829</v>
       </c>
     </row>
-    <row r="65" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D65" s="33">
         <v>61</v>
       </c>
@@ -53472,7 +53474,7 @@
         <v>7.2926631784907325E-2</v>
       </c>
     </row>
-    <row r="66" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D66" s="33">
         <v>62</v>
       </c>
@@ -53543,7 +53545,7 @@
         <v>2.8087603770480252E-2</v>
       </c>
     </row>
-    <row r="67" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D67" s="33">
         <v>63</v>
       </c>
@@ -53614,7 +53616,7 @@
         <v>-2.021609316355355E-2</v>
       </c>
     </row>
-    <row r="68" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D68" s="33">
         <v>64</v>
       </c>
@@ -53685,7 +53687,7 @@
         <v>-7.183689559170281E-2</v>
       </c>
     </row>
-    <row r="69" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D69" s="33">
         <v>65</v>
       </c>
@@ -53756,7 +53758,7 @@
         <v>-0.12657113179389468</v>
       </c>
     </row>
-    <row r="70" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D70" s="33">
         <v>66</v>
       </c>
@@ -53827,7 +53829,7 @@
         <v>-0.18415539308761963</v>
       </c>
     </row>
-    <row r="71" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D71" s="33">
         <v>67</v>
       </c>
@@ -53898,7 +53900,7 @@
         <v>-0.24426338207726284</v>
       </c>
     </row>
-    <row r="72" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D72" s="33">
         <v>68</v>
       </c>
@@ -53969,7 +53971,7 @@
         <v>-0.30650333650367112</v>
       </c>
     </row>
-    <row r="73" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D73" s="33">
         <v>69</v>
       </c>
@@ -54040,7 +54042,7 @@
         <v>-0.37041612662580237</v>
       </c>
     </row>
-    <row r="74" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D74" s="33">
         <v>70</v>
       </c>
@@ -54111,7 +54113,7 @@
         <v>-0.43547412117796869</v>
       </c>
     </row>
-    <row r="75" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D75" s="33">
         <v>71</v>
       </c>
@@ -54182,7 +54184,7 @@
         <v>-0.50108091200117544</v>
       </c>
     </row>
-    <row r="76" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D76" s="33">
         <v>72</v>
       </c>
@@ -54253,7 +54255,7 @@
         <v>-0.56657198055738034</v>
       </c>
     </row>
-    <row r="77" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D77" s="33">
         <v>73</v>
       </c>
@@ -54324,7 +54326,7 @@
         <v>-0.63121638037509165</v>
       </c>
     </row>
-    <row r="78" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D78" s="33">
         <v>74</v>
       </c>
@@ -54395,7 +54397,7 @@
         <v>-0.6942194982115506</v>
       </c>
     </row>
-    <row r="79" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D79" s="33">
         <v>75</v>
       </c>
@@ -54466,7 +54468,7 @@
         <v>-0.75472694359975323</v>
       </c>
     </row>
-    <row r="80" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D80" s="33">
         <v>76</v>
       </c>
@@ -54537,7 +54539,7 @@
         <v>-0.81182960152770844</v>
       </c>
     </row>
-    <row r="81" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D81" s="33">
         <v>77</v>
       </c>
@@ -54608,7 +54610,7 @@
         <v>-0.86456986631184618</v>
       </c>
     </row>
-    <row r="82" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D82" s="33">
         <v>78</v>
       </c>
@@ -54679,7 +54681,7 @@
         <v>-0.91194905675143811</v>
       </c>
     </row>
-    <row r="83" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D83" s="33">
         <v>79</v>
       </c>
@@ -54750,7 +54752,7 @@
         <v>-0.95293599367727078</v>
       </c>
     </row>
-    <row r="84" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D84" s="33">
         <v>80</v>
       </c>
@@ -54821,7 +54823,7 @@
         <v>-0.98647670101711027</v>
       </c>
     </row>
-    <row r="85" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D85" s="33">
         <v>81</v>
       </c>
@@ -54892,7 +54894,7 @@
         <v>-1.0115051712841971</v>
       </c>
     </row>
-    <row r="86" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D86" s="33">
         <v>82</v>
       </c>
@@ -54963,7 +54965,7 @@
         <v>-1.0269551159518628</v>
       </c>
     </row>
-    <row r="87" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D87" s="33">
         <v>83</v>
       </c>
@@ -55034,7 +55036,7 @@
         <v>-1.0317726009092212</v>
       </c>
     </row>
-    <row r="88" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D88" s="33">
         <v>84</v>
       </c>
@@ -55105,7 +55107,7 @@
         <v>-1.0249294476069055</v>
       </c>
     </row>
-    <row r="89" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D89" s="33">
         <v>85</v>
       </c>
@@ -55176,7 +55178,7 @@
         <v>-1.005437261690024</v>
       </c>
     </row>
-    <row r="90" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D90" s="33">
         <v>86</v>
       </c>
@@ -55247,7 +55249,7 @@
         <v>-0.97236193306921148</v>
       </c>
     </row>
-    <row r="91" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D91" s="33">
         <v>87</v>
       </c>
@@ -55318,7 +55320,7 @@
         <v>-0.92483843492818973</v>
       </c>
     </row>
-    <row r="92" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D92" s="33">
         <v>88</v>
       </c>
@@ -55389,7 +55391,7 @@
         <v>-0.8620857342070396</v>
       </c>
     </row>
-    <row r="93" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D93" s="33">
         <v>89</v>
       </c>
@@ -55460,7 +55462,7 @@
         <v>-0.78342161220231787</v>
       </c>
     </row>
-    <row r="94" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D94" s="33">
         <v>90</v>
       </c>
@@ -55531,7 +55533,7 @@
         <v>-0.68827718178555664</v>
       </c>
     </row>
-    <row r="95" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D95" s="33">
         <v>91</v>
       </c>
@@ -55602,7 +55604,7 @@
         <v>-0.57621087674380433</v>
       </c>
     </row>
-    <row r="96" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D96" s="33">
         <v>92</v>
       </c>
@@ -55673,7 +55675,7 @@
         <v>-0.44692167851630327</v>
       </c>
     </row>
-    <row r="97" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D97" s="33">
         <v>93</v>
       </c>
@@ -55744,7 +55746,7 @@
         <v>-0.30026133642520669</v>
       </c>
     </row>
-    <row r="98" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D98" s="33">
         <v>94</v>
       </c>
@@ -55815,7 +55817,7 @@
         <v>-0.13624532837307424</v>
       </c>
     </row>
-    <row r="99" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D99" s="33">
         <v>95</v>
       </c>
@@ -55886,7 +55888,7 @@
         <v>4.4937700341987963E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D100" s="33">
         <v>96</v>
       </c>
@@ -55957,7 +55959,7 @@
         <v>0.24291829234199991</v>
       </c>
     </row>
-    <row r="101" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D101" s="33">
         <v>97</v>
       </c>
@@ -56028,7 +56030,7 @@
         <v>0.45714061117837179</v>
       </c>
     </row>
-    <row r="102" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D102" s="33">
         <v>98</v>
       </c>
@@ -56099,7 +56101,7 @@
         <v>0.68685924864752135</v>
       </c>
     </row>
-    <row r="103" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D103" s="33">
         <v>99</v>
       </c>
@@ -56170,7 +56172,7 @@
         <v>0.93113871825025019</v>
       </c>
     </row>
-    <row r="104" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D104" s="33">
         <v>100</v>
       </c>
@@ -56241,7 +56243,7 @@
         <v>1.0795492097707928</v>
       </c>
     </row>
-    <row r="105" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D105" s="33">
         <v>101</v>
       </c>
@@ -56312,7 +56314,7 @@
         <v>1.0225107827980189</v>
       </c>
     </row>
-    <row r="106" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D106" s="33">
         <v>102</v>
       </c>
@@ -56383,7 +56385,7 @@
         <v>0.86724795050347936</v>
       </c>
     </row>
-    <row r="107" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D107" s="33">
         <v>103</v>
       </c>
@@ -56454,7 +56456,7 @@
         <v>0.72098823382138466</v>
       </c>
     </row>
-    <row r="108" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D108" s="33">
         <v>104</v>
       </c>
@@ -56525,7 +56527,7 @@
         <v>0.58432180280383683</v>
       </c>
     </row>
-    <row r="109" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D109" s="33">
         <v>105</v>
       </c>
@@ -56596,7 +56598,7 @@
         <v>0.4577103273819656</v>
       </c>
     </row>
-    <row r="110" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D110" s="33">
         <v>106</v>
       </c>
@@ -56667,7 +56669,7 @@
         <v>0.34148594713749514</v>
       </c>
     </row>
-    <row r="111" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D111" s="33">
         <v>107</v>
       </c>
@@ -56738,7 +56740,7 @@
         <v>0.23585265128616317</v>
       </c>
     </row>
-    <row r="112" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D112" s="33">
         <v>108</v>
       </c>
@@ -56809,7 +56811,7 @@
         <v>0.14088986324267694</v>
       </c>
     </row>
-    <row r="113" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D113" s="33">
         <v>109</v>
       </c>
@@ -56880,7 +56882,7 @@
         <v>5.6557995085593227E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D114" s="33">
         <v>110</v>
       </c>
@@ -56951,7 +56953,7 @@
         <v>-1.7294284164512952E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D115" s="33">
         <v>111</v>
       </c>
@@ -57022,7 +57024,7 @@
         <v>-8.0921336600171756E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D116" s="33">
         <v>112</v>
       </c>
@@ -57093,7 +57095,7 @@
         <v>-0.13467067704995195</v>
       </c>
     </row>
-    <row r="117" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D117" s="33">
         <v>113</v>
       </c>
@@ -57164,7 +57166,7 @@
         <v>-0.17897220610846976</v>
       </c>
     </row>
-    <row r="118" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D118" s="33">
         <v>114</v>
       </c>
@@ -57235,7 +57237,7 @@
         <v>-0.21432682709724205</v>
       </c>
     </row>
-    <row r="119" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D119" s="33">
         <v>115</v>
       </c>
@@ -57306,7 +57308,7 @@
         <v>-0.24129470886099913</v>
       </c>
     </row>
-    <row r="120" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D120" s="33">
         <v>116</v>
       </c>
@@ -57377,7 +57379,7 @@
         <v>-0.26048344113300148</v>
       </c>
     </row>
-    <row r="121" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D121" s="33">
         <v>117</v>
       </c>
@@ -57448,7 +57450,7 @@
         <v>-0.27253631018590951</v>
       </c>
     </row>
-    <row r="122" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D122" s="33">
         <v>118</v>
       </c>
@@ -57519,7 +57521,7 @@
         <v>-0.278120900413243</v>
       </c>
     </row>
-    <row r="123" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D123" s="33">
         <v>119</v>
       </c>
@@ -57590,7 +57592,7 @@
         <v>-0.27791820311549076</v>
       </c>
     </row>
-    <row r="124" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D124" s="33">
         <v>120</v>
       </c>
@@ -57661,7 +57663,7 @@
         <v>-0.27261238772410312</v>
       </c>
     </row>
-    <row r="125" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D125" s="33">
         <v>121</v>
       </c>
@@ -57732,7 +57734,7 @@
         <v>-0.26288136386741412</v>
       </c>
     </row>
-    <row r="126" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D126" s="33">
         <v>122</v>
       </c>
@@ -57803,7 +57805,7 @@
         <v>-0.24938823562074708</v>
       </c>
     </row>
-    <row r="127" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D127" s="33">
         <v>123</v>
       </c>
@@ -57874,7 +57876,7 @@
         <v>-0.23277372256072004</v>
       </c>
     </row>
-    <row r="128" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D128" s="33">
         <v>124</v>
       </c>
@@ -57945,7 +57947,7 @@
         <v>-0.21364959650526139</v>
       </c>
     </row>
-    <row r="129" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D129" s="33">
         <v>125</v>
       </c>
@@ -58016,7 +58018,7 @@
         <v>-0.19259315845873193</v>
       </c>
     </row>
-    <row r="130" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D130" s="33">
         <v>126</v>
       </c>
@@ -58087,7 +58089,7 @@
         <v>-0.17014275774237597</v>
       </c>
     </row>
-    <row r="131" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D131" s="33">
         <v>127</v>
       </c>
@@ -58158,7 +58160,7 @@
         <v>-0.14679433484523985</v>
       </c>
     </row>
-    <row r="132" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D132" s="33">
         <v>128</v>
       </c>
@@ -58229,7 +58231,7 @@
         <v>-0.12299895146820239</v>
       </c>
     </row>
-    <row r="133" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D133" s="33">
         <v>129</v>
       </c>
@@ -58300,7 +58302,7 @@
         <v>-9.9161255707508111E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D134" s="33">
         <v>130</v>
       </c>
@@ -58371,7 +58373,7 @@
         <v>-7.5638817403039793E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D135" s="33">
         <v>131</v>
       </c>
@@ -58442,7 +58444,7 @@
         <v>-5.2742258407059817E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D136" s="33">
         <v>132</v>
       </c>
@@ -58513,7 +58515,7 @@
         <v>-3.0736094876252285E-2</v>
       </c>
     </row>
-    <row r="137" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D137" s="33">
         <v>133</v>
       </c>
@@ -58584,7 +58586,7 @@
         <v>-9.8402035479061567E-3</v>
       </c>
     </row>
-    <row r="138" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D138" s="33">
         <v>134</v>
       </c>
@@ -58655,7 +58657,7 @@
         <v>9.7681788363883637E-3</v>
       </c>
     </row>
-    <row r="139" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D139" s="33">
         <v>135</v>
       </c>
@@ -58726,7 +58728,7 @@
         <v>2.7952014381798951E-2</v>
       </c>
     </row>
-    <row r="140" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D140" s="33">
         <v>136</v>
       </c>
@@ -58797,7 +58799,7 @@
         <v>4.4611671226341354E-2</v>
       </c>
     </row>
-    <row r="141" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D141" s="33">
         <v>137</v>
       </c>
@@ -58868,7 +58870,7 @@
         <v>5.9681866037644471E-2</v>
       </c>
     </row>
-    <row r="142" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D142" s="33">
         <v>138</v>
       </c>
@@ -58939,7 +58941,7 @@
         <v>7.3128424226158395E-2</v>
       </c>
     </row>
-    <row r="143" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D143" s="33">
         <v>139</v>
       </c>
@@ -59010,7 +59012,7 @@
         <v>8.4944934526649529E-2</v>
       </c>
     </row>
-    <row r="144" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D144" s="33">
         <v>140</v>
       </c>
@@ -59081,7 +59083,7 @@
         <v>9.5149367888608172E-2</v>
       </c>
     </row>
-    <row r="145" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D145" s="33">
         <v>141</v>
       </c>
@@ -59152,7 +59154,7 @@
         <v>0.10378072321817366</v>
       </c>
     </row>
-    <row r="146" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D146" s="33">
         <v>142</v>
       </c>
@@ -59223,7 +59225,7 @@
         <v>0.11089575468330803</v>
       </c>
     </row>
-    <row r="147" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D147" s="33">
         <v>143</v>
       </c>
@@ -59294,7 +59296,7 @@
         <v>0.11656582723734266</v>
       </c>
     </row>
-    <row r="148" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D148" s="33">
         <v>144</v>
       </c>
@@ -59365,7 +59367,7 @@
         <v>0.12087393895488152</v>
       </c>
     </row>
-    <row r="149" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D149" s="33">
         <v>145</v>
       </c>
@@ -59436,7 +59438,7 @@
         <v>0.12391194088438151</v>
       </c>
     </row>
-    <row r="150" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D150" s="33">
         <v>146</v>
       </c>
@@ -59507,7 +59509,7 @@
         <v>0.12577797755733783</v>
       </c>
     </row>
-    <row r="151" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:29" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D151" s="33">
         <v>147</v>
       </c>
@@ -59579,7 +59581,7 @@
       </c>
       <c r="AC151" s="31"/>
     </row>
-    <row r="152" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D152" s="33">
         <v>148</v>
       </c>
@@ -59650,7 +59652,7 @@
         <v>0.12640451009180945</v>
       </c>
     </row>
-    <row r="153" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D153" s="33">
         <v>149</v>
       </c>
@@ -59722,7 +59724,7 @@
       </c>
       <c r="AC153" s="29"/>
     </row>
-    <row r="154" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D154" s="33">
         <v>150</v>
       </c>
@@ -59793,7 +59795,7 @@
         <v>0.1235824745111809</v>
       </c>
     </row>
-    <row r="155" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D155" s="33">
         <v>151</v>
       </c>
@@ -59864,7 +59866,7 @@
         <v>0.12113237526792014</v>
       </c>
     </row>
-    <row r="156" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D156" s="33">
         <v>152</v>
       </c>
@@ -59935,7 +59937,7 @@
         <v>0.11811855860101389</v>
       </c>
     </row>
-    <row r="157" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D157" s="33">
         <v>153</v>
       </c>
@@ -60006,7 +60008,7 @@
         <v>0.11463195109809766</v>
       </c>
     </row>
-    <row r="158" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D158" s="33">
         <v>154</v>
       </c>
@@ -60077,7 +60079,7 @@
         <v>0.1107579598939587</v>
       </c>
     </row>
-    <row r="159" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D159" s="33">
         <v>155</v>
       </c>
@@ -60148,7 +60150,7 @@
         <v>0.10657597790586593</v>
       </c>
     </row>
-    <row r="160" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D160" s="33">
         <v>156</v>
       </c>
@@ -60219,7 +60221,7 @@
         <v>0.10215905763011457</v>
       </c>
     </row>
-    <row r="161" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D161" s="33">
         <v>157</v>
       </c>
@@ -60290,7 +60292,7 @@
         <v>9.7573734703889664E-2</v>
       </c>
     </row>
-    <row r="162" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D162" s="33">
         <v>158</v>
       </c>
@@ -60361,7 +60363,7 @@
         <v>9.2879982317065554E-2</v>
       </c>
     </row>
-    <row r="163" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D163" s="33">
         <v>159</v>
       </c>
@@ -60432,7 +60434,7 @@
         <v>8.8131277847786099E-2</v>
       </c>
     </row>
-    <row r="164" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D164" s="33">
         <v>160</v>
       </c>
@@ -60503,7 +60505,7 @@
         <v>8.3374763727739692E-2</v>
       </c>
     </row>
-    <row r="165" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D165" s="33">
         <v>161</v>
       </c>
@@ -60574,7 +60576,7 @@
         <v>7.8651485455506764E-2</v>
       </c>
     </row>
-    <row r="166" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D166" s="33">
         <v>162</v>
       </c>
@@ -60645,7 +60647,7 @@
         <v>7.3996690804251392E-2</v>
       </c>
     </row>
-    <row r="167" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D167" s="33">
         <v>163</v>
       </c>
@@ -60716,7 +60718,7 @@
         <v>6.9440175557251571E-2</v>
       </c>
     </row>
-    <row r="168" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D168" s="33">
         <v>164</v>
       </c>
@@ -60787,7 +60789,7 @@
         <v>6.5006662497259685E-2</v>
       </c>
     </row>
-    <row r="169" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D169" s="33">
         <v>165</v>
       </c>
@@ -60858,7 +60860,7 @@
         <v>6.0716201825811958E-2</v>
       </c>
     </row>
-    <row r="170" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D170" s="33">
         <v>166</v>
       </c>
@@ -60929,7 +60931,7 @@
         <v>5.6584582656007812E-2</v>
       </c>
     </row>
-    <row r="171" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D171" s="33">
         <v>167</v>
       </c>
@@ -61000,7 +61002,7 @@
         <v>5.2623746669242653E-2</v>
       </c>
     </row>
-    <row r="172" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D172" s="33">
         <v>168</v>
       </c>
@@ -61071,7 +61073,7 @@
         <v>4.8842196424909341E-2</v>
       </c>
     </row>
-    <row r="173" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D173" s="33">
         <v>169</v>
       </c>
@@ -61142,7 +61144,7 @@
         <v>4.5245392139209327E-2</v>
       </c>
     </row>
-    <row r="174" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D174" s="33">
         <v>170</v>
       </c>
@@ -61213,7 +61215,7 @@
         <v>4.1836131985107029E-2</v>
       </c>
     </row>
-    <row r="175" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D175" s="33">
         <v>171</v>
       </c>
@@ -61284,7 +61286,7 @@
         <v>3.8614912098666021E-2</v>
       </c>
     </row>
-    <row r="176" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D176" s="33">
         <v>172</v>
       </c>
@@ -61355,7 +61357,7 @@
         <v>3.5580263499157029E-2</v>
       </c>
     </row>
-    <row r="177" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D177" s="33">
         <v>173</v>
       </c>
@@ -61426,7 +61428,7 @@
         <v>3.2729064036829507E-2</v>
       </c>
     </row>
-    <row r="178" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D178" s="33">
         <v>174</v>
       </c>
@@ -61497,7 +61499,7 @@
         <v>3.0056824272905035E-2</v>
       </c>
     </row>
-    <row r="179" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D179" s="33">
         <v>175</v>
       </c>
@@ -61568,7 +61570,7 @@
         <v>2.7557946872934422E-2</v>
       </c>
     </row>
-    <row r="180" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D180" s="33">
         <v>176</v>
       </c>
@@ -61639,7 +61641,7 @@
         <v>2.5225959662609924E-2</v>
       </c>
     </row>
-    <row r="181" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D181" s="33">
         <v>177</v>
       </c>
@@ -61710,7 +61712,7 @@
         <v>2.3053722960161602E-2</v>
       </c>
     </row>
-    <row r="182" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D182" s="33">
         <v>178</v>
       </c>
@@ -61781,7 +61783,7 @@
         <v>2.1033612169530116E-2</v>
       </c>
     </row>
-    <row r="183" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D183" s="33">
         <v>179</v>
       </c>
@@ -61852,7 +61854,7 @@
         <v>1.9157676902795628E-2</v>
       </c>
     </row>
-    <row r="184" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D184" s="33">
         <v>180</v>
       </c>
@@ -61923,7 +61925,7 @@
         <v>1.7417778107571589E-2</v>
       </c>
     </row>
-    <row r="185" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D185" s="33">
         <v>181</v>
       </c>
@@ -61994,7 +61996,7 @@
         <v>1.5805704814706525E-2</v>
       </c>
     </row>
-    <row r="186" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D186" s="33">
         <v>182</v>
       </c>
@@ -62065,7 +62067,7 @@
         <v>1.4313272203150287E-2</v>
       </c>
     </row>
-    <row r="187" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D187" s="33">
         <v>183</v>
       </c>
@@ -62136,7 +62138,7 @@
         <v>1.2932402711170963E-2</v>
       </c>
     </row>
-    <row r="188" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D188" s="33">
         <v>184</v>
       </c>
@@ -62207,7 +62209,7 @@
         <v>1.1655191914564593E-2</v>
       </c>
     </row>
-    <row r="189" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D189" s="33">
         <v>185</v>
       </c>
@@ -62278,7 +62280,7 @@
         <v>1.0473960851132929E-2</v>
       </c>
     </row>
-    <row r="190" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D190" s="33">
         <v>186</v>
       </c>
@@ -62349,7 +62351,7 @@
         <v>9.381296403595989E-3</v>
       </c>
     </row>
-    <row r="191" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D191" s="33">
         <v>187</v>
       </c>
@@ -62420,7 +62422,7 @@
         <v>8.3700812665959759E-3</v>
       </c>
     </row>
-    <row r="192" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D192" s="33">
         <v>188</v>
       </c>
@@ -62491,7 +62493,7 @@
         <v>7.4335149232218848E-3</v>
       </c>
     </row>
-    <row r="193" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D193" s="33">
         <v>189</v>
       </c>
@@ -62562,7 +62564,7 @@
         <v>6.5651269474200904E-3</v>
       </c>
     </row>
-    <row r="194" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D194" s="33">
         <v>190</v>
       </c>
@@ -62633,7 +62635,7 @@
         <v>5.7587838347535726E-3</v>
       </c>
     </row>
-    <row r="195" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D195" s="33">
         <v>191</v>
       </c>
@@ -62704,7 +62706,7 @@
         <v>5.008690448685532E-3</v>
       </c>
     </row>
-    <row r="196" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D196" s="33">
         <v>192</v>
       </c>
@@ -62775,7 +62777,7 @@
         <v>4.3093870557318597E-3</v>
       </c>
     </row>
-    <row r="197" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D197" s="33">
         <v>193</v>
       </c>
@@ -62846,7 +62848,7 @@
         <v>3.6557428124785484E-3</v>
       </c>
     </row>
-    <row r="198" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D198" s="33">
         <v>194</v>
       </c>
@@ -62917,7 +62919,7 @@
         <v>3.0429464623219103E-3</v>
       </c>
     </row>
-    <row r="199" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D199" s="33">
         <v>195</v>
       </c>
@@ -62988,7 +62990,7 @@
         <v>2.4664949010707025E-3</v>
       </c>
     </row>
-    <row r="200" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D200" s="33">
         <v>196</v>
       </c>
@@ -63059,7 +63061,7 @@
         <v>1.9221801789608051E-3</v>
       </c>
     </row>
-    <row r="201" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D201" s="33">
         <v>197</v>
       </c>
@@ -63130,7 +63132,7 @@
         <v>1.4060754227031868E-3</v>
       </c>
     </row>
-    <row r="202" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D202" s="33">
         <v>198</v>
       </c>
@@ -63189,7 +63191,7 @@
       <c r="Y202" s="39"/>
       <c r="Z202" s="39"/>
     </row>
-    <row r="203" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D203" s="33">
         <v>199</v>
       </c>
@@ -63236,7 +63238,7 @@
       <c r="Y203" s="39"/>
       <c r="Z203" s="39"/>
     </row>
-    <row r="204" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D204" s="33">
         <v>200</v>
       </c>
@@ -63285,11 +63287,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE280B11-E265-40E3-967A-3CD23CABFAE3}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63297,15 +63300,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB37B449-5522-4DDC-865E-371B3C61410A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -63313,7 +63317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-4.1106482744587565E-2</v>
       </c>
@@ -63321,7 +63325,7 @@
         <v>4.0273069850938932E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-4.0206443878925975E-2</v>
       </c>
@@ -63329,7 +63333,7 @@
         <v>3.9408889858397064E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3.9306405013264385E-2</v>
       </c>
@@ -63337,7 +63341,7 @@
         <v>3.8543931803099327E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-3.8406366147602795E-2</v>
       </c>
@@ -63345,7 +63349,7 @@
         <v>3.7678195084052818E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-3.7506327281941206E-2</v>
       </c>
@@ -63353,7 +63357,7 @@
         <v>3.6811679135837959E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-3.6606288416279616E-2</v>
       </c>
@@ -63361,7 +63365,7 @@
         <v>3.5944383454540194E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-3.5706249550618019E-2</v>
       </c>
@@ -63369,7 +63373,7 @@
         <v>3.5076307634461942E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-3.4806210684956429E-2</v>
       </c>
@@ -63377,7 +63381,7 @@
         <v>3.4207451421562132E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-3.3906171819294839E-2</v>
       </c>
@@ -63385,7 +63389,7 @@
         <v>3.3337814791925005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-3.3006132953633249E-2</v>
       </c>
@@ -63393,7 +63397,7 @@
         <v>3.2467398066930511E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-3.2106094087971659E-2</v>
       </c>
@@ -63401,7 +63405,7 @@
         <v>3.1596202081494981E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-3.120605522231007E-2</v>
       </c>
@@ -63409,7 +63413,7 @@
         <v>3.0724228428159035E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-3.030601635664848E-2</v>
       </c>
@@ -63417,7 +63421,7 @@
         <v>2.9851479808377889E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-2.940597749098689E-2</v>
       </c>
@@ -63425,7 +63429,7 @@
         <v>2.8977960533631941E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-2.85059386253253E-2</v>
       </c>
@@ -63433,7 +63437,7 @@
         <v>2.810367723345154E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-2.760589975966371E-2</v>
       </c>
@@ -63441,7 +63445,7 @@
         <v>2.7228639845616114E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-2.670586089400212E-2</v>
       </c>
@@ -63449,7 +63453,7 @@
         <v>2.6352862985955461E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-2.580582202834053E-2</v>
       </c>
@@ -63457,7 +63461,7 @@
         <v>2.5476367821333976E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-2.4905783162678937E-2</v>
       </c>
@@ -63465,7 +63469,7 @@
         <v>2.4599184598975022E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-2.4005744297017347E-2</v>
       </c>
@@ -63473,7 +63477,7 @@
         <v>2.3721356016903776E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-2.3105705431355757E-2</v>
       </c>
@@ -63481,7 +63485,7 @@
         <v>2.2842941651453494E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-2.2205666565694167E-2</v>
       </c>
@@ -63489,7 +63493,7 @@
         <v>2.1964023684583254E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-2.1305627700032578E-2</v>
       </c>
@@ -63497,7 +63501,7 @@
         <v>2.1084714190666667E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-2.0405588834370984E-2</v>
       </c>
@@ -63505,7 +63509,7 @@
         <v>2.0205164242265473E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-1.9505549968709394E-2</v>
       </c>
@@ -63513,7 +63517,7 @@
         <v>1.9325584804647807E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-1.8605511103047805E-2</v>
       </c>
@@ -63521,7 +63525,7 @@
         <v>1.8446260169716164E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-1.7705472237386215E-2</v>
       </c>
@@ -63529,7 +63533,7 @@
         <v>1.7567568000043488E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-1.6805433371724625E-2</v>
       </c>
@@ -63537,7 +63541,7 @@
         <v>1.6690004572889949E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.5905394506063035E-2</v>
       </c>
@@ -63545,7 +63549,7 @@
         <v>1.5814214389742207E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-1.5005355640401442E-2</v>
       </c>
@@ -63553,7 +63557,7 @@
         <v>1.4941023920510362E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1.4105316774739852E-2</v>
       </c>
@@ -63561,7 +63565,7 @@
         <v>1.4071478771261076E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-1.3205277909078262E-2</v>
       </c>
@@ -63569,7 +63573,7 @@
         <v>1.3206882951094236E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-1.2305239043416672E-2</v>
       </c>
@@ -63577,7 +63581,7 @@
         <v>1.2348838185882793E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-1.1405200177755082E-2</v>
       </c>
@@ -63585,7 +63589,7 @@
         <v>1.1499280425283401E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-1.0505161312093492E-2</v>
       </c>
@@ -63593,7 +63597,7 @@
         <v>1.0660509885206837E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-9.6051224464318991E-3</v>
       </c>
@@ -63601,7 +63605,7 @@
         <v>9.8352102703420565E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-8.7050835807703092E-3</v>
       </c>
@@ -63609,7 +63613,7 @@
         <v>9.0264523872076678E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-7.8050447151087193E-3</v>
       </c>
@@ -63617,7 +63621,7 @@
         <v>8.2376773781165334E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-6.9050058494471295E-3</v>
       </c>
@@ -63625,7 +63629,7 @@
         <v>7.4726554320332043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-6.0049669837855396E-3</v>
       </c>
@@ -63633,7 +63637,7 @@
         <v>6.7354170317489607E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-5.1049281181239498E-3</v>
       </c>
@@ -63641,7 +63645,7 @@
         <v>6.030155305087213E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-4.2048892524623599E-3</v>
       </c>
@@ -63649,7 +63653,7 @@
         <v>5.3610997414466335E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-3.30485038680077E-3</v>
       </c>
@@ -63657,7 +63661,7 @@
         <v>4.7319002934521183E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-2.4048115211391802E-3</v>
       </c>
@@ -63665,7 +63669,7 @@
         <v>4.145431958524036E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-1.5047726554775903E-3</v>
       </c>
@@ -63673,7 +63677,7 @@
         <v>3.6040178335563279E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-6.0473378981599352E-4</v>
       </c>
@@ -63681,7 +63685,7 @@
         <v>3.1093247376102881E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.9530507584559634E-4</v>
       </c>
@@ -63689,7 +63693,7 @@
         <v>2.6622651584417992E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.1953439415071862E-3</v>
       </c>
@@ -63697,7 +63701,7 @@
         <v>2.262631232870771E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.0953828071687761E-3</v>
       </c>
@@ -63705,7 +63709,7 @@
         <v>1.9087417535522992E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.9954216728303659E-3</v>
       </c>
@@ -63713,7 +63717,7 @@
         <v>1.5982740578126728E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3.8954605384919558E-3</v>
       </c>
@@ -63721,7 +63725,7 @@
         <v>1.3284158167422117E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4.7954994041535456E-3</v>
       </c>
@@ -63729,7 +63733,7 @@
         <v>1.0960005091779682E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.6955382698151355E-3</v>
       </c>
@@ -63737,7 +63741,7 @@
         <v>8.9763286511996318E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6.5955771354767254E-3</v>
       </c>
@@ -63745,7 +63749,7 @@
         <v>7.2986252957389685E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7.4956160011383152E-3</v>
       </c>
@@ -63753,7 +63757,7 @@
         <v>5.8924179756573525E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8.3956548667999051E-3</v>
       </c>
@@ -63761,7 +63765,7 @@
         <v>4.7241257775738877E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9.2956937324614949E-3</v>
       </c>
@@ -63769,7 +63773,7 @@
         <v>3.7618290808193969E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.0195732598123085E-2</v>
       </c>
@@ -63777,7 +63781,7 @@
         <v>2.9758353928271687E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.1095771463784682E-2</v>
       </c>
@@ -63785,7 +63789,7 @@
         <v>2.3390576155287479E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.1995810329446271E-2</v>
       </c>
@@ -63793,7 +63797,7 @@
         <v>1.8272228949684562E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.2895849195107861E-2</v>
       </c>
@@ -63801,7 +63805,7 @@
         <v>1.4189356156888821E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.3795888060769451E-2</v>
       </c>
@@ -63809,7 +63813,7 @@
         <v>1.0956220082063954E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.4695926926431041E-2</v>
       </c>
@@ -63817,7 +63821,7 @@
         <v>8.4138519446594977E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1.5595965792092631E-2</v>
       </c>
@@ -63825,7 +63829,7 @@
         <v>6.4279826913897923E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.6496004657754221E-2</v>
       </c>
@@ -63833,7 +63837,7 @@
         <v>4.886599106875785E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.7396043523415811E-2</v>
       </c>
@@ -63841,7 +63845,7 @@
         <v>3.6973290373603871E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1.82960823890774E-2</v>
       </c>
@@ -63849,7 +63853,7 @@
         <v>2.7848154072769125E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.919612125473899E-2</v>
       </c>
@@ -63857,7 +63861,7 @@
         <v>2.0881962870229067E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.009616012040058E-2</v>
       </c>
@@ -63865,7 +63869,7 @@
         <v>1.5587703370692268E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.099619898606217E-2</v>
       </c>
@@ -63873,7 +63877,7 @@
         <v>1.1578949195714719E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.1896237851723767E-2</v>
       </c>
@@ -63881,7 +63885,7 @@
         <v>8.5513853014885296E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.2796276717385357E-2</v>
       </c>
@@ -63889,7 +63893,7 @@
         <v>6.2781024274907206E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.3696315583046947E-2</v>
       </c>
@@ -63897,7 +63901,7 @@
         <v>4.5825779557122401E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.4596354448708536E-2</v>
       </c>
@@ -63905,7 +63909,7 @@
         <v>3.3261892553907046E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.5496393314370126E-2</v>
       </c>
@@ -63913,7 +63917,7 @@
         <v>2.4010787846670265E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.6396432180031716E-2</v>
       </c>
@@ -63921,7 +63925,7 @@
         <v>1.7240710184306365E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.7296471045693306E-2</v>
       </c>
@@ -63929,7 +63933,7 @@
         <v>1.231572307555855E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.8196509911354896E-2</v>
       </c>
@@ -63937,7 +63941,7 @@
         <v>8.753604230136201E-7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.9096548777016486E-2</v>
       </c>
@@ -63945,7 +63949,7 @@
         <v>6.1915803448285024E-7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.9996587642678076E-2</v>
       </c>
@@ -63953,7 +63957,7 @@
         <v>4.3588110146665441E-7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3.0896626508339665E-2</v>
       </c>
@@ -63961,7 +63965,7 @@
         <v>3.0545657732548475E-7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3.1796665374001255E-2</v>
       </c>
@@ -63969,7 +63973,7 @@
         <v>2.1311168362523692E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3.2696704239662845E-2</v>
       </c>
@@ -63977,7 +63981,7 @@
         <v>1.4804743121205375E-7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3.3596743105324435E-2</v>
       </c>
@@ -63985,7 +63989,7 @@
         <v>1.0242059314558424E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3.4496781970986025E-2</v>
       </c>
@@ -63993,7 +63997,7 @@
         <v>7.0569921625143237E-8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3.5396820836647615E-2</v>
       </c>
@@ -64001,7 +64005,7 @@
         <v>4.8433344749754858E-8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3.6296859702309205E-2</v>
       </c>
@@ -64009,7 +64013,7 @@
         <v>3.3112761965935244E-8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>3.7196898567970794E-2</v>
       </c>
@@ -64017,7 +64021,7 @@
         <v>2.2551678252641909E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3.8096937433632384E-2</v>
       </c>
@@ -64025,7 +64029,7 @@
         <v>1.5298229305654727E-8</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3.8996976299293974E-2</v>
       </c>
@@ -64033,7 +64037,7 @@
         <v>1.0332207394551986E-8</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3.9897015164955578E-2</v>
       </c>
@@ -64041,7 +64045,7 @@
         <v>6.9396141822908364E-9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4.0797054030617168E-2</v>
       </c>
@@ -64049,7 +64053,7 @@
         <v>4.6221856474032919E-9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4.1697092896278758E-2</v>
       </c>
@@ -64057,7 +64061,7 @@
         <v>3.0324059104057131E-9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4.2597131761940348E-2</v>
       </c>
@@ -64065,7 +64069,7 @@
         <v>1.9268954500179914E-9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4.3497170627601937E-2</v>
       </c>
@@ -64073,7 +64077,7 @@
         <v>1.1328545414360511E-9</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4.4397209493263527E-2</v>
       </c>
@@ -64081,7 +64085,7 @@
         <v>5.2357568049088832E-10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4.5297248358925124E-2</v>
       </c>
